--- a/TestSet22.xlsx
+++ b/TestSet22.xlsx
@@ -12,12 +12,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21420" windowHeight="6456" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="21-Desc" sheetId="2" r:id="rId1"/>
-    <sheet name="21-Scripts" sheetId="1" r:id="rId2"/>
+    <sheet name="Desc" sheetId="2" r:id="rId1"/>
+    <sheet name="Scripts" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'21-Scripts'!$A$4:$S$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Scripts!$A$4:$S$88</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -702,10 +702,10 @@
   <dimension ref="A1:S100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F100" sqref="F100"/>
+      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -858,59 +858,59 @@
         <v>39</v>
       </c>
       <c r="F5" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" ref="F5:F36" si="1">"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G5" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E5&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" ref="G5:G36" si="2">"Config.NoInclude/DataShapes/"&amp;E5&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H5" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B5&amp;"-"&amp;C5&amp;".xml"</f>
+        <f t="shared" ref="H5:H36" si="3">"Config.NoInclude/Engines/"&amp;B5&amp;"-"&amp;C5&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I5" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D5&amp;".xml"</f>
+        <f t="shared" ref="I5:I36" si="4">"Config.NoInclude/DataSets/"&amp;D5&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J5" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G5&amp;" "&amp;I5&amp;" "&amp;H5</f>
+        <f t="shared" ref="J5:J36" si="5">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G5&amp;" "&amp;I5&amp;" "&amp;H5</f>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K5" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F5&amp;" "&amp;K$2&amp;" "&amp;$A5</f>
+        <f t="shared" ref="K5:S14" si="6">"zzz Infer "&amp;$A$2&amp;" "&amp;$F5&amp;" "&amp;K$2&amp;" "&amp;$A5</f>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L5" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F5&amp;" "&amp;L$2&amp;" "&amp;$A5</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M5" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F5&amp;" "&amp;M$2&amp;" "&amp;$A5</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N5" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F5&amp;" "&amp;N$2&amp;" "&amp;$A5</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O5" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F5&amp;" "&amp;O$2&amp;" "&amp;$A5</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P5" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F5&amp;" "&amp;P$2&amp;" "&amp;$A5</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q5" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F5&amp;" "&amp;Q$2&amp;" "&amp;$A5</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R5" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F5&amp;" "&amp;R$2&amp;" "&amp;$A5</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S5" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F5&amp;" "&amp;S$2&amp;" "&amp;$A5</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -928,59 +928,59 @@
         <v>39</v>
       </c>
       <c r="F6" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G6" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E6&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H6" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B6&amp;"-"&amp;C6&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I6" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D6&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J6" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G6&amp;" "&amp;I6&amp;" "&amp;H6</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K6" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F6&amp;" "&amp;K$2&amp;" "&amp;$A6</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L6" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F6&amp;" "&amp;L$2&amp;" "&amp;$A6</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M6" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F6&amp;" "&amp;M$2&amp;" "&amp;$A6</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N6" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F6&amp;" "&amp;N$2&amp;" "&amp;$A6</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O6" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F6&amp;" "&amp;O$2&amp;" "&amp;$A6</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P6" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F6&amp;" "&amp;P$2&amp;" "&amp;$A6</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q6" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F6&amp;" "&amp;Q$2&amp;" "&amp;$A6</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R6" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F6&amp;" "&amp;R$2&amp;" "&amp;$A6</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S6" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F6&amp;" "&amp;S$2&amp;" "&amp;$A6</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -998,59 +998,59 @@
         <v>39</v>
       </c>
       <c r="F7" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G7" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E7&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H7" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B7&amp;"-"&amp;C7&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I7" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D7&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J7" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G7&amp;" "&amp;I7&amp;" "&amp;H7</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K7" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F7&amp;" "&amp;K$2&amp;" "&amp;$A7</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L7" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F7&amp;" "&amp;L$2&amp;" "&amp;$A7</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M7" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F7&amp;" "&amp;M$2&amp;" "&amp;$A7</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N7" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F7&amp;" "&amp;N$2&amp;" "&amp;$A7</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O7" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F7&amp;" "&amp;O$2&amp;" "&amp;$A7</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P7" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F7&amp;" "&amp;P$2&amp;" "&amp;$A7</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q7" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F7&amp;" "&amp;Q$2&amp;" "&amp;$A7</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R7" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F7&amp;" "&amp;R$2&amp;" "&amp;$A7</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S7" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F7&amp;" "&amp;S$2&amp;" "&amp;$A7</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -1068,59 +1068,59 @@
         <v>39</v>
       </c>
       <c r="F8" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G8" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E8&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H8" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B8&amp;"-"&amp;C8&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I8" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D8&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J8" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G8&amp;" "&amp;I8&amp;" "&amp;H8</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K8" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F8&amp;" "&amp;K$2&amp;" "&amp;$A8</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L8" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F8&amp;" "&amp;L$2&amp;" "&amp;$A8</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M8" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F8&amp;" "&amp;M$2&amp;" "&amp;$A8</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N8" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F8&amp;" "&amp;N$2&amp;" "&amp;$A8</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O8" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F8&amp;" "&amp;O$2&amp;" "&amp;$A8</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P8" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F8&amp;" "&amp;P$2&amp;" "&amp;$A8</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q8" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F8&amp;" "&amp;Q$2&amp;" "&amp;$A8</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R8" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F8&amp;" "&amp;R$2&amp;" "&amp;$A8</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S8" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F8&amp;" "&amp;S$2&amp;" "&amp;$A8</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -1139,59 +1139,59 @@
         <v>39</v>
       </c>
       <c r="F9" s="8" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G9" s="8" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E9&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H9" s="8" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B9&amp;"-"&amp;C9&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I9" s="8" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D9&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J9" s="8" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G9&amp;" "&amp;I9&amp;" "&amp;H9</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K9" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F9&amp;" "&amp;K$2&amp;" "&amp;$A9</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L9" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F9&amp;" "&amp;L$2&amp;" "&amp;$A9</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M9" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F9&amp;" "&amp;M$2&amp;" "&amp;$A9</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N9" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F9&amp;" "&amp;N$2&amp;" "&amp;$A9</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O9" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F9&amp;" "&amp;O$2&amp;" "&amp;$A9</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P9" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F9&amp;" "&amp;P$2&amp;" "&amp;$A9</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q9" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F9&amp;" "&amp;Q$2&amp;" "&amp;$A9</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R9" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F9&amp;" "&amp;R$2&amp;" "&amp;$A9</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S9" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F9&amp;" "&amp;S$2&amp;" "&amp;$A9</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -1210,59 +1210,59 @@
         <v>39</v>
       </c>
       <c r="F10" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G10" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E10&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H10" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B10&amp;"-"&amp;C10&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I10" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D10&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J10" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G10&amp;" "&amp;I10&amp;" "&amp;H10</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K10" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F10&amp;" "&amp;K$2&amp;" "&amp;$A10</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L10" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F10&amp;" "&amp;L$2&amp;" "&amp;$A10</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M10" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F10&amp;" "&amp;M$2&amp;" "&amp;$A10</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N10" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F10&amp;" "&amp;N$2&amp;" "&amp;$A10</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O10" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F10&amp;" "&amp;O$2&amp;" "&amp;$A10</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P10" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F10&amp;" "&amp;P$2&amp;" "&amp;$A10</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q10" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F10&amp;" "&amp;Q$2&amp;" "&amp;$A10</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R10" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F10&amp;" "&amp;R$2&amp;" "&amp;$A10</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S10" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F10&amp;" "&amp;S$2&amp;" "&amp;$A10</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -1280,59 +1280,59 @@
         <v>39</v>
       </c>
       <c r="F11" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G11" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E11&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H11" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B11&amp;"-"&amp;C11&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I11" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D11&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J11" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G11&amp;" "&amp;I11&amp;" "&amp;H11</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K11" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F11&amp;" "&amp;K$2&amp;" "&amp;$A11</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L11" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F11&amp;" "&amp;L$2&amp;" "&amp;$A11</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M11" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F11&amp;" "&amp;M$2&amp;" "&amp;$A11</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N11" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F11&amp;" "&amp;N$2&amp;" "&amp;$A11</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O11" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F11&amp;" "&amp;O$2&amp;" "&amp;$A11</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P11" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F11&amp;" "&amp;P$2&amp;" "&amp;$A11</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q11" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F11&amp;" "&amp;Q$2&amp;" "&amp;$A11</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R11" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F11&amp;" "&amp;R$2&amp;" "&amp;$A11</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S11" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F11&amp;" "&amp;S$2&amp;" "&amp;$A11</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -1350,59 +1350,59 @@
         <v>39</v>
       </c>
       <c r="F12" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G12" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E12&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H12" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B12&amp;"-"&amp;C12&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I12" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D12&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J12" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G12&amp;" "&amp;I12&amp;" "&amp;H12</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K12" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F12&amp;" "&amp;K$2&amp;" "&amp;$A12</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L12" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F12&amp;" "&amp;L$2&amp;" "&amp;$A12</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M12" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F12&amp;" "&amp;M$2&amp;" "&amp;$A12</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N12" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F12&amp;" "&amp;N$2&amp;" "&amp;$A12</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O12" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F12&amp;" "&amp;O$2&amp;" "&amp;$A12</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P12" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F12&amp;" "&amp;P$2&amp;" "&amp;$A12</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q12" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F12&amp;" "&amp;Q$2&amp;" "&amp;$A12</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R12" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F12&amp;" "&amp;R$2&amp;" "&amp;$A12</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S12" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F12&amp;" "&amp;S$2&amp;" "&amp;$A12</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -1421,59 +1421,59 @@
         <v>39</v>
       </c>
       <c r="F13" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G13" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E13&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H13" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B13&amp;"-"&amp;C13&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I13" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D13&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J13" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G13&amp;" "&amp;I13&amp;" "&amp;H13</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K13" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F13&amp;" "&amp;K$2&amp;" "&amp;$A13</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L13" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F13&amp;" "&amp;L$2&amp;" "&amp;$A13</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M13" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F13&amp;" "&amp;M$2&amp;" "&amp;$A13</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N13" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F13&amp;" "&amp;N$2&amp;" "&amp;$A13</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O13" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F13&amp;" "&amp;O$2&amp;" "&amp;$A13</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P13" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F13&amp;" "&amp;P$2&amp;" "&amp;$A13</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q13" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F13&amp;" "&amp;Q$2&amp;" "&amp;$A13</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R13" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F13&amp;" "&amp;R$2&amp;" "&amp;$A13</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S13" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F13&amp;" "&amp;S$2&amp;" "&amp;$A13</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -1491,59 +1491,59 @@
         <v>39</v>
       </c>
       <c r="F14" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G14" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E14&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H14" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B14&amp;"-"&amp;C14&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I14" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D14&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J14" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G14&amp;" "&amp;I14&amp;" "&amp;H14</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K14" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F14&amp;" "&amp;K$2&amp;" "&amp;$A14</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L14" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F14&amp;" "&amp;L$2&amp;" "&amp;$A14</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M14" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F14&amp;" "&amp;M$2&amp;" "&amp;$A14</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N14" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F14&amp;" "&amp;N$2&amp;" "&amp;$A14</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O14" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F14&amp;" "&amp;O$2&amp;" "&amp;$A14</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P14" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F14&amp;" "&amp;P$2&amp;" "&amp;$A14</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q14" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F14&amp;" "&amp;Q$2&amp;" "&amp;$A14</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R14" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F14&amp;" "&amp;R$2&amp;" "&amp;$A14</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S14" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F14&amp;" "&amp;S$2&amp;" "&amp;$A14</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -1561,59 +1561,59 @@
         <v>39</v>
       </c>
       <c r="F15" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G15" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E15&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H15" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B15&amp;"-"&amp;C15&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I15" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D15&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J15" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G15&amp;" "&amp;I15&amp;" "&amp;H15</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K15" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F15&amp;" "&amp;K$2&amp;" "&amp;$A15</f>
+        <f t="shared" ref="K15:S24" si="7">"zzz Infer "&amp;$A$2&amp;" "&amp;$F15&amp;" "&amp;K$2&amp;" "&amp;$A15</f>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L15" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F15&amp;" "&amp;L$2&amp;" "&amp;$A15</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M15" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F15&amp;" "&amp;M$2&amp;" "&amp;$A15</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N15" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F15&amp;" "&amp;N$2&amp;" "&amp;$A15</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O15" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F15&amp;" "&amp;O$2&amp;" "&amp;$A15</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P15" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F15&amp;" "&amp;P$2&amp;" "&amp;$A15</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q15" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F15&amp;" "&amp;Q$2&amp;" "&amp;$A15</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R15" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F15&amp;" "&amp;R$2&amp;" "&amp;$A15</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S15" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F15&amp;" "&amp;S$2&amp;" "&amp;$A15</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -1631,59 +1631,59 @@
         <v>39</v>
       </c>
       <c r="F16" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G16" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E16&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H16" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B16&amp;"-"&amp;C16&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I16" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D16&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J16" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G16&amp;" "&amp;I16&amp;" "&amp;H16</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K16" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F16&amp;" "&amp;K$2&amp;" "&amp;$A16</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L16" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F16&amp;" "&amp;L$2&amp;" "&amp;$A16</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M16" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F16&amp;" "&amp;M$2&amp;" "&amp;$A16</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N16" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F16&amp;" "&amp;N$2&amp;" "&amp;$A16</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O16" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F16&amp;" "&amp;O$2&amp;" "&amp;$A16</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P16" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F16&amp;" "&amp;P$2&amp;" "&amp;$A16</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q16" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F16&amp;" "&amp;Q$2&amp;" "&amp;$A16</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R16" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F16&amp;" "&amp;R$2&amp;" "&amp;$A16</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S16" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F16&amp;" "&amp;S$2&amp;" "&amp;$A16</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -1701,59 +1701,59 @@
         <v>67</v>
       </c>
       <c r="F17" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G17" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E17&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H17" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B17&amp;"-"&amp;C17&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I17" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D17&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J17" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G17&amp;" "&amp;I17&amp;" "&amp;H17</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K17" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F17&amp;" "&amp;K$2&amp;" "&amp;$A17</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L17" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F17&amp;" "&amp;L$2&amp;" "&amp;$A17</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M17" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F17&amp;" "&amp;M$2&amp;" "&amp;$A17</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N17" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F17&amp;" "&amp;N$2&amp;" "&amp;$A17</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O17" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F17&amp;" "&amp;O$2&amp;" "&amp;$A17</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P17" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F17&amp;" "&amp;P$2&amp;" "&amp;$A17</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q17" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F17&amp;" "&amp;Q$2&amp;" "&amp;$A17</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R17" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F17&amp;" "&amp;R$2&amp;" "&amp;$A17</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S17" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F17&amp;" "&amp;S$2&amp;" "&amp;$A17</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -1771,59 +1771,59 @@
         <v>67</v>
       </c>
       <c r="F18" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G18" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E18&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H18" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B18&amp;"-"&amp;C18&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I18" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D18&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J18" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G18&amp;" "&amp;I18&amp;" "&amp;H18</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K18" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F18&amp;" "&amp;K$2&amp;" "&amp;$A18</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L18" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F18&amp;" "&amp;L$2&amp;" "&amp;$A18</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M18" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F18&amp;" "&amp;M$2&amp;" "&amp;$A18</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N18" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F18&amp;" "&amp;N$2&amp;" "&amp;$A18</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O18" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F18&amp;" "&amp;O$2&amp;" "&amp;$A18</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P18" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F18&amp;" "&amp;P$2&amp;" "&amp;$A18</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q18" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F18&amp;" "&amp;Q$2&amp;" "&amp;$A18</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R18" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F18&amp;" "&amp;R$2&amp;" "&amp;$A18</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S18" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F18&amp;" "&amp;S$2&amp;" "&amp;$A18</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -1841,59 +1841,59 @@
         <v>67</v>
       </c>
       <c r="F19" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G19" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E19&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H19" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B19&amp;"-"&amp;C19&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I19" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D19&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J19" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G19&amp;" "&amp;I19&amp;" "&amp;H19</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K19" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F19&amp;" "&amp;K$2&amp;" "&amp;$A19</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L19" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F19&amp;" "&amp;L$2&amp;" "&amp;$A19</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M19" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F19&amp;" "&amp;M$2&amp;" "&amp;$A19</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N19" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F19&amp;" "&amp;N$2&amp;" "&amp;$A19</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O19" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F19&amp;" "&amp;O$2&amp;" "&amp;$A19</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P19" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F19&amp;" "&amp;P$2&amp;" "&amp;$A19</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q19" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F19&amp;" "&amp;Q$2&amp;" "&amp;$A19</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R19" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F19&amp;" "&amp;R$2&amp;" "&amp;$A19</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S19" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F19&amp;" "&amp;S$2&amp;" "&amp;$A19</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -1911,59 +1911,59 @@
         <v>67</v>
       </c>
       <c r="F20" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G20" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E20&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H20" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B20&amp;"-"&amp;C20&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I20" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D20&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J20" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G20&amp;" "&amp;I20&amp;" "&amp;H20</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K20" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F20&amp;" "&amp;K$2&amp;" "&amp;$A20</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L20" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F20&amp;" "&amp;L$2&amp;" "&amp;$A20</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M20" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F20&amp;" "&amp;M$2&amp;" "&amp;$A20</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N20" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F20&amp;" "&amp;N$2&amp;" "&amp;$A20</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O20" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F20&amp;" "&amp;O$2&amp;" "&amp;$A20</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P20" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F20&amp;" "&amp;P$2&amp;" "&amp;$A20</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q20" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F20&amp;" "&amp;Q$2&amp;" "&amp;$A20</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R20" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F20&amp;" "&amp;R$2&amp;" "&amp;$A20</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S20" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F20&amp;" "&amp;S$2&amp;" "&amp;$A20</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -1982,59 +1982,59 @@
         <v>67</v>
       </c>
       <c r="F21" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G21" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E21&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H21" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B21&amp;"-"&amp;C21&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I21" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D21&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J21" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G21&amp;" "&amp;I21&amp;" "&amp;H21</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K21" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F21&amp;" "&amp;K$2&amp;" "&amp;$A21</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L21" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F21&amp;" "&amp;L$2&amp;" "&amp;$A21</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M21" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F21&amp;" "&amp;M$2&amp;" "&amp;$A21</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N21" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F21&amp;" "&amp;N$2&amp;" "&amp;$A21</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O21" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F21&amp;" "&amp;O$2&amp;" "&amp;$A21</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P21" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F21&amp;" "&amp;P$2&amp;" "&amp;$A21</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q21" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F21&amp;" "&amp;Q$2&amp;" "&amp;$A21</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R21" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F21&amp;" "&amp;R$2&amp;" "&amp;$A21</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S21" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F21&amp;" "&amp;S$2&amp;" "&amp;$A21</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -2052,59 +2052,59 @@
         <v>67</v>
       </c>
       <c r="F22" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G22" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E22&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H22" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B22&amp;"-"&amp;C22&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I22" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D22&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J22" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G22&amp;" "&amp;I22&amp;" "&amp;H22</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K22" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F22&amp;" "&amp;K$2&amp;" "&amp;$A22</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L22" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F22&amp;" "&amp;L$2&amp;" "&amp;$A22</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M22" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F22&amp;" "&amp;M$2&amp;" "&amp;$A22</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N22" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F22&amp;" "&amp;N$2&amp;" "&amp;$A22</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O22" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F22&amp;" "&amp;O$2&amp;" "&amp;$A22</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P22" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F22&amp;" "&amp;P$2&amp;" "&amp;$A22</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q22" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F22&amp;" "&amp;Q$2&amp;" "&amp;$A22</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R22" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F22&amp;" "&amp;R$2&amp;" "&amp;$A22</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S22" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F22&amp;" "&amp;S$2&amp;" "&amp;$A22</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -2122,59 +2122,59 @@
         <v>67</v>
       </c>
       <c r="F23" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G23" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E23&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H23" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B23&amp;"-"&amp;C23&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I23" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D23&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J23" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G23&amp;" "&amp;I23&amp;" "&amp;H23</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K23" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F23&amp;" "&amp;K$2&amp;" "&amp;$A23</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L23" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F23&amp;" "&amp;L$2&amp;" "&amp;$A23</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M23" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F23&amp;" "&amp;M$2&amp;" "&amp;$A23</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N23" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F23&amp;" "&amp;N$2&amp;" "&amp;$A23</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O23" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F23&amp;" "&amp;O$2&amp;" "&amp;$A23</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P23" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F23&amp;" "&amp;P$2&amp;" "&amp;$A23</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q23" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F23&amp;" "&amp;Q$2&amp;" "&amp;$A23</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R23" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F23&amp;" "&amp;R$2&amp;" "&amp;$A23</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S23" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F23&amp;" "&amp;S$2&amp;" "&amp;$A23</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -2192,59 +2192,59 @@
         <v>67</v>
       </c>
       <c r="F24" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G24" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E24&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H24" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B24&amp;"-"&amp;C24&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I24" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D24&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J24" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G24&amp;" "&amp;I24&amp;" "&amp;H24</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K24" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F24&amp;" "&amp;K$2&amp;" "&amp;$A24</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L24" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F24&amp;" "&amp;L$2&amp;" "&amp;$A24</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M24" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F24&amp;" "&amp;M$2&amp;" "&amp;$A24</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N24" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F24&amp;" "&amp;N$2&amp;" "&amp;$A24</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O24" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F24&amp;" "&amp;O$2&amp;" "&amp;$A24</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P24" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F24&amp;" "&amp;P$2&amp;" "&amp;$A24</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q24" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F24&amp;" "&amp;Q$2&amp;" "&amp;$A24</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R24" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F24&amp;" "&amp;R$2&amp;" "&amp;$A24</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S24" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F24&amp;" "&amp;S$2&amp;" "&amp;$A24</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -2262,59 +2262,59 @@
         <v>67</v>
       </c>
       <c r="F25" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G25" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E25&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H25" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B25&amp;"-"&amp;C25&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I25" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D25&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J25" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G25&amp;" "&amp;I25&amp;" "&amp;H25</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K25" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F25&amp;" "&amp;K$2&amp;" "&amp;$A25</f>
+        <f t="shared" ref="K25:S34" si="8">"zzz Infer "&amp;$A$2&amp;" "&amp;$F25&amp;" "&amp;K$2&amp;" "&amp;$A25</f>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L25" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F25&amp;" "&amp;L$2&amp;" "&amp;$A25</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M25" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F25&amp;" "&amp;M$2&amp;" "&amp;$A25</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N25" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F25&amp;" "&amp;N$2&amp;" "&amp;$A25</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O25" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F25&amp;" "&amp;O$2&amp;" "&amp;$A25</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P25" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F25&amp;" "&amp;P$2&amp;" "&amp;$A25</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q25" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F25&amp;" "&amp;Q$2&amp;" "&amp;$A25</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R25" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F25&amp;" "&amp;R$2&amp;" "&amp;$A25</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S25" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F25&amp;" "&amp;S$2&amp;" "&amp;$A25</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -2332,59 +2332,59 @@
         <v>67</v>
       </c>
       <c r="F26" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G26" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E26&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H26" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B26&amp;"-"&amp;C26&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I26" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D26&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J26" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G26&amp;" "&amp;I26&amp;" "&amp;H26</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K26" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F26&amp;" "&amp;K$2&amp;" "&amp;$A26</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L26" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F26&amp;" "&amp;L$2&amp;" "&amp;$A26</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M26" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F26&amp;" "&amp;M$2&amp;" "&amp;$A26</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N26" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F26&amp;" "&amp;N$2&amp;" "&amp;$A26</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O26" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F26&amp;" "&amp;O$2&amp;" "&amp;$A26</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P26" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F26&amp;" "&amp;P$2&amp;" "&amp;$A26</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q26" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F26&amp;" "&amp;Q$2&amp;" "&amp;$A26</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R26" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F26&amp;" "&amp;R$2&amp;" "&amp;$A26</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S26" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F26&amp;" "&amp;S$2&amp;" "&amp;$A26</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -2402,59 +2402,59 @@
         <v>67</v>
       </c>
       <c r="F27" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G27" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E27&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H27" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B27&amp;"-"&amp;C27&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I27" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D27&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J27" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G27&amp;" "&amp;I27&amp;" "&amp;H27</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K27" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F27&amp;" "&amp;K$2&amp;" "&amp;$A27</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L27" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F27&amp;" "&amp;L$2&amp;" "&amp;$A27</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M27" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F27&amp;" "&amp;M$2&amp;" "&amp;$A27</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N27" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F27&amp;" "&amp;N$2&amp;" "&amp;$A27</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O27" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F27&amp;" "&amp;O$2&amp;" "&amp;$A27</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P27" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F27&amp;" "&amp;P$2&amp;" "&amp;$A27</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q27" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F27&amp;" "&amp;Q$2&amp;" "&amp;$A27</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R27" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F27&amp;" "&amp;R$2&amp;" "&amp;$A27</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S27" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F27&amp;" "&amp;S$2&amp;" "&amp;$A27</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -2472,59 +2472,59 @@
         <v>67</v>
       </c>
       <c r="F28" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G28" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E28&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H28" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B28&amp;"-"&amp;C28&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I28" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D28&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J28" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G28&amp;" "&amp;I28&amp;" "&amp;H28</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K28" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F28&amp;" "&amp;K$2&amp;" "&amp;$A28</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L28" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F28&amp;" "&amp;L$2&amp;" "&amp;$A28</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M28" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F28&amp;" "&amp;M$2&amp;" "&amp;$A28</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N28" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F28&amp;" "&amp;N$2&amp;" "&amp;$A28</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O28" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F28&amp;" "&amp;O$2&amp;" "&amp;$A28</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P28" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F28&amp;" "&amp;P$2&amp;" "&amp;$A28</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q28" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F28&amp;" "&amp;Q$2&amp;" "&amp;$A28</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R28" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F28&amp;" "&amp;R$2&amp;" "&amp;$A28</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S28" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F28&amp;" "&amp;S$2&amp;" "&amp;$A28</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -2542,59 +2542,59 @@
         <v>68</v>
       </c>
       <c r="F29" s="8" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G29" s="8" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E29&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H29" s="8" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B29&amp;"-"&amp;C29&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I29" s="8" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D29&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J29" s="8" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G29&amp;" "&amp;I29&amp;" "&amp;H29</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K29" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F29&amp;" "&amp;K$2&amp;" "&amp;$A29</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L29" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F29&amp;" "&amp;L$2&amp;" "&amp;$A29</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M29" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F29&amp;" "&amp;M$2&amp;" "&amp;$A29</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N29" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F29&amp;" "&amp;N$2&amp;" "&amp;$A29</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O29" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F29&amp;" "&amp;O$2&amp;" "&amp;$A29</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P29" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F29&amp;" "&amp;P$2&amp;" "&amp;$A29</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q29" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F29&amp;" "&amp;Q$2&amp;" "&amp;$A29</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R29" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F29&amp;" "&amp;R$2&amp;" "&amp;$A29</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S29" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F29&amp;" "&amp;S$2&amp;" "&amp;$A29</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -2612,59 +2612,59 @@
         <v>68</v>
       </c>
       <c r="F30" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G30" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E30&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H30" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B30&amp;"-"&amp;C30&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I30" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D30&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J30" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G30&amp;" "&amp;I30&amp;" "&amp;H30</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K30" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F30&amp;" "&amp;K$2&amp;" "&amp;$A30</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L30" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F30&amp;" "&amp;L$2&amp;" "&amp;$A30</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M30" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F30&amp;" "&amp;M$2&amp;" "&amp;$A30</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N30" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F30&amp;" "&amp;N$2&amp;" "&amp;$A30</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O30" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F30&amp;" "&amp;O$2&amp;" "&amp;$A30</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P30" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F30&amp;" "&amp;P$2&amp;" "&amp;$A30</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q30" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F30&amp;" "&amp;Q$2&amp;" "&amp;$A30</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R30" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F30&amp;" "&amp;R$2&amp;" "&amp;$A30</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S30" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F30&amp;" "&amp;S$2&amp;" "&amp;$A30</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -2682,59 +2682,59 @@
         <v>68</v>
       </c>
       <c r="F31" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G31" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E31&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H31" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B31&amp;"-"&amp;C31&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I31" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D31&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J31" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G31&amp;" "&amp;I31&amp;" "&amp;H31</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K31" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F31&amp;" "&amp;K$2&amp;" "&amp;$A31</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L31" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F31&amp;" "&amp;L$2&amp;" "&amp;$A31</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M31" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F31&amp;" "&amp;M$2&amp;" "&amp;$A31</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N31" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F31&amp;" "&amp;N$2&amp;" "&amp;$A31</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O31" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F31&amp;" "&amp;O$2&amp;" "&amp;$A31</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P31" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F31&amp;" "&amp;P$2&amp;" "&amp;$A31</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q31" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F31&amp;" "&amp;Q$2&amp;" "&amp;$A31</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R31" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F31&amp;" "&amp;R$2&amp;" "&amp;$A31</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S31" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F31&amp;" "&amp;S$2&amp;" "&amp;$A31</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -2752,59 +2752,59 @@
         <v>68</v>
       </c>
       <c r="F32" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G32" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E32&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H32" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B32&amp;"-"&amp;C32&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I32" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D32&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J32" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G32&amp;" "&amp;I32&amp;" "&amp;H32</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K32" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F32&amp;" "&amp;K$2&amp;" "&amp;$A32</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L32" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F32&amp;" "&amp;L$2&amp;" "&amp;$A32</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M32" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F32&amp;" "&amp;M$2&amp;" "&amp;$A32</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N32" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F32&amp;" "&amp;N$2&amp;" "&amp;$A32</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O32" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F32&amp;" "&amp;O$2&amp;" "&amp;$A32</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P32" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F32&amp;" "&amp;P$2&amp;" "&amp;$A32</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q32" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F32&amp;" "&amp;Q$2&amp;" "&amp;$A32</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R32" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F32&amp;" "&amp;R$2&amp;" "&amp;$A32</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S32" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F32&amp;" "&amp;S$2&amp;" "&amp;$A32</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -2822,59 +2822,59 @@
         <v>68</v>
       </c>
       <c r="F33" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G33" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E33&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H33" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B33&amp;"-"&amp;C33&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I33" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D33&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J33" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G33&amp;" "&amp;I33&amp;" "&amp;H33</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K33" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F33&amp;" "&amp;K$2&amp;" "&amp;$A33</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L33" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F33&amp;" "&amp;L$2&amp;" "&amp;$A33</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M33" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F33&amp;" "&amp;M$2&amp;" "&amp;$A33</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N33" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F33&amp;" "&amp;N$2&amp;" "&amp;$A33</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O33" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F33&amp;" "&amp;O$2&amp;" "&amp;$A33</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P33" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F33&amp;" "&amp;P$2&amp;" "&amp;$A33</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q33" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F33&amp;" "&amp;Q$2&amp;" "&amp;$A33</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R33" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F33&amp;" "&amp;R$2&amp;" "&amp;$A33</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S33" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F33&amp;" "&amp;S$2&amp;" "&amp;$A33</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -2892,59 +2892,59 @@
         <v>68</v>
       </c>
       <c r="F34" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G34" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E34&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H34" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B34&amp;"-"&amp;C34&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I34" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D34&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J34" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G34&amp;" "&amp;I34&amp;" "&amp;H34</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K34" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F34&amp;" "&amp;K$2&amp;" "&amp;$A34</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L34" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F34&amp;" "&amp;L$2&amp;" "&amp;$A34</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M34" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F34&amp;" "&amp;M$2&amp;" "&amp;$A34</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N34" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F34&amp;" "&amp;N$2&amp;" "&amp;$A34</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O34" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F34&amp;" "&amp;O$2&amp;" "&amp;$A34</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P34" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F34&amp;" "&amp;P$2&amp;" "&amp;$A34</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q34" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F34&amp;" "&amp;Q$2&amp;" "&amp;$A34</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R34" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F34&amp;" "&amp;R$2&amp;" "&amp;$A34</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S34" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F34&amp;" "&amp;S$2&amp;" "&amp;$A34</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -2962,59 +2962,59 @@
         <v>68</v>
       </c>
       <c r="F35" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G35" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E35&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H35" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B35&amp;"-"&amp;C35&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I35" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D35&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J35" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G35&amp;" "&amp;I35&amp;" "&amp;H35</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K35" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F35&amp;" "&amp;K$2&amp;" "&amp;$A35</f>
+        <f t="shared" ref="K35:S44" si="9">"zzz Infer "&amp;$A$2&amp;" "&amp;$F35&amp;" "&amp;K$2&amp;" "&amp;$A35</f>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L35" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F35&amp;" "&amp;L$2&amp;" "&amp;$A35</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M35" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F35&amp;" "&amp;M$2&amp;" "&amp;$A35</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N35" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F35&amp;" "&amp;N$2&amp;" "&amp;$A35</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O35" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F35&amp;" "&amp;O$2&amp;" "&amp;$A35</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P35" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F35&amp;" "&amp;P$2&amp;" "&amp;$A35</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q35" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F35&amp;" "&amp;Q$2&amp;" "&amp;$A35</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R35" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F35&amp;" "&amp;R$2&amp;" "&amp;$A35</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S35" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F35&amp;" "&amp;S$2&amp;" "&amp;$A35</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -3032,59 +3032,59 @@
         <v>68</v>
       </c>
       <c r="F36" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G36" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E36&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H36" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B36&amp;"-"&amp;C36&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I36" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D36&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J36" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G36&amp;" "&amp;I36&amp;" "&amp;H36</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K36" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F36&amp;" "&amp;K$2&amp;" "&amp;$A36</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L36" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F36&amp;" "&amp;L$2&amp;" "&amp;$A36</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M36" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F36&amp;" "&amp;M$2&amp;" "&amp;$A36</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N36" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F36&amp;" "&amp;N$2&amp;" "&amp;$A36</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O36" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F36&amp;" "&amp;O$2&amp;" "&amp;$A36</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P36" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F36&amp;" "&amp;P$2&amp;" "&amp;$A36</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q36" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F36&amp;" "&amp;Q$2&amp;" "&amp;$A36</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R36" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F36&amp;" "&amp;R$2&amp;" "&amp;$A36</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S36" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F36&amp;" "&amp;S$2&amp;" "&amp;$A36</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -3102,59 +3102,59 @@
         <v>68</v>
       </c>
       <c r="F37" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" ref="F37:F68" si="10">"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G37" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E37&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" ref="G37:G68" si="11">"Config.NoInclude/DataShapes/"&amp;E37&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H37" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B37&amp;"-"&amp;C37&amp;".xml"</f>
+        <f t="shared" ref="H37:H68" si="12">"Config.NoInclude/Engines/"&amp;B37&amp;"-"&amp;C37&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I37" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D37&amp;".xml"</f>
+        <f t="shared" ref="I37:I68" si="13">"Config.NoInclude/DataSets/"&amp;D37&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J37" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G37&amp;" "&amp;I37&amp;" "&amp;H37</f>
+        <f t="shared" ref="J37:J68" si="14">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G37&amp;" "&amp;I37&amp;" "&amp;H37</f>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K37" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F37&amp;" "&amp;K$2&amp;" "&amp;$A37</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L37" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F37&amp;" "&amp;L$2&amp;" "&amp;$A37</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M37" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F37&amp;" "&amp;M$2&amp;" "&amp;$A37</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N37" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F37&amp;" "&amp;N$2&amp;" "&amp;$A37</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O37" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F37&amp;" "&amp;O$2&amp;" "&amp;$A37</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P37" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F37&amp;" "&amp;P$2&amp;" "&amp;$A37</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q37" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F37&amp;" "&amp;Q$2&amp;" "&amp;$A37</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R37" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F37&amp;" "&amp;R$2&amp;" "&amp;$A37</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S37" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F37&amp;" "&amp;S$2&amp;" "&amp;$A37</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -3172,59 +3172,59 @@
         <v>68</v>
       </c>
       <c r="F38" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G38" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E38&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H38" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B38&amp;"-"&amp;C38&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I38" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D38&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J38" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G38&amp;" "&amp;I38&amp;" "&amp;H38</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K38" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F38&amp;" "&amp;K$2&amp;" "&amp;$A38</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L38" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F38&amp;" "&amp;L$2&amp;" "&amp;$A38</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M38" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F38&amp;" "&amp;M$2&amp;" "&amp;$A38</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N38" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F38&amp;" "&amp;N$2&amp;" "&amp;$A38</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O38" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F38&amp;" "&amp;O$2&amp;" "&amp;$A38</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P38" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F38&amp;" "&amp;P$2&amp;" "&amp;$A38</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q38" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F38&amp;" "&amp;Q$2&amp;" "&amp;$A38</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R38" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F38&amp;" "&amp;R$2&amp;" "&amp;$A38</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S38" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F38&amp;" "&amp;S$2&amp;" "&amp;$A38</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -3242,59 +3242,59 @@
         <v>68</v>
       </c>
       <c r="F39" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G39" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E39&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H39" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B39&amp;"-"&amp;C39&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I39" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D39&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J39" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G39&amp;" "&amp;I39&amp;" "&amp;H39</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K39" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F39&amp;" "&amp;K$2&amp;" "&amp;$A39</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L39" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F39&amp;" "&amp;L$2&amp;" "&amp;$A39</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M39" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F39&amp;" "&amp;M$2&amp;" "&amp;$A39</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N39" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F39&amp;" "&amp;N$2&amp;" "&amp;$A39</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O39" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F39&amp;" "&amp;O$2&amp;" "&amp;$A39</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P39" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F39&amp;" "&amp;P$2&amp;" "&amp;$A39</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q39" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F39&amp;" "&amp;Q$2&amp;" "&amp;$A39</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R39" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F39&amp;" "&amp;R$2&amp;" "&amp;$A39</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S39" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F39&amp;" "&amp;S$2&amp;" "&amp;$A39</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -3312,59 +3312,59 @@
         <v>68</v>
       </c>
       <c r="F40" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G40" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E40&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H40" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B40&amp;"-"&amp;C40&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I40" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D40&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J40" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G40&amp;" "&amp;I40&amp;" "&amp;H40</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K40" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F40&amp;" "&amp;K$2&amp;" "&amp;$A40</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L40" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F40&amp;" "&amp;L$2&amp;" "&amp;$A40</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M40" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F40&amp;" "&amp;M$2&amp;" "&amp;$A40</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N40" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F40&amp;" "&amp;N$2&amp;" "&amp;$A40</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O40" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F40&amp;" "&amp;O$2&amp;" "&amp;$A40</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P40" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F40&amp;" "&amp;P$2&amp;" "&amp;$A40</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q40" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F40&amp;" "&amp;Q$2&amp;" "&amp;$A40</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R40" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F40&amp;" "&amp;R$2&amp;" "&amp;$A40</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S40" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F40&amp;" "&amp;S$2&amp;" "&amp;$A40</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -3382,59 +3382,59 @@
         <v>69</v>
       </c>
       <c r="F41" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G41" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E41&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H41" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B41&amp;"-"&amp;C41&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I41" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D41&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J41" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G41&amp;" "&amp;I41&amp;" "&amp;H41</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K41" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F41&amp;" "&amp;K$2&amp;" "&amp;$A41</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L41" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F41&amp;" "&amp;L$2&amp;" "&amp;$A41</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M41" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F41&amp;" "&amp;M$2&amp;" "&amp;$A41</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N41" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F41&amp;" "&amp;N$2&amp;" "&amp;$A41</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O41" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F41&amp;" "&amp;O$2&amp;" "&amp;$A41</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P41" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F41&amp;" "&amp;P$2&amp;" "&amp;$A41</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q41" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F41&amp;" "&amp;Q$2&amp;" "&amp;$A41</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R41" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F41&amp;" "&amp;R$2&amp;" "&amp;$A41</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S41" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F41&amp;" "&amp;S$2&amp;" "&amp;$A41</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -3452,59 +3452,59 @@
         <v>69</v>
       </c>
       <c r="F42" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G42" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E42&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H42" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B42&amp;"-"&amp;C42&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I42" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D42&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J42" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G42&amp;" "&amp;I42&amp;" "&amp;H42</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K42" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F42&amp;" "&amp;K$2&amp;" "&amp;$A42</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L42" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F42&amp;" "&amp;L$2&amp;" "&amp;$A42</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M42" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F42&amp;" "&amp;M$2&amp;" "&amp;$A42</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N42" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F42&amp;" "&amp;N$2&amp;" "&amp;$A42</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O42" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F42&amp;" "&amp;O$2&amp;" "&amp;$A42</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P42" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F42&amp;" "&amp;P$2&amp;" "&amp;$A42</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q42" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F42&amp;" "&amp;Q$2&amp;" "&amp;$A42</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R42" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F42&amp;" "&amp;R$2&amp;" "&amp;$A42</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S42" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F42&amp;" "&amp;S$2&amp;" "&amp;$A42</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -3522,59 +3522,59 @@
         <v>69</v>
       </c>
       <c r="F43" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G43" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E43&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H43" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B43&amp;"-"&amp;C43&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I43" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D43&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J43" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G43&amp;" "&amp;I43&amp;" "&amp;H43</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K43" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F43&amp;" "&amp;K$2&amp;" "&amp;$A43</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L43" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F43&amp;" "&amp;L$2&amp;" "&amp;$A43</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M43" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F43&amp;" "&amp;M$2&amp;" "&amp;$A43</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N43" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F43&amp;" "&amp;N$2&amp;" "&amp;$A43</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O43" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F43&amp;" "&amp;O$2&amp;" "&amp;$A43</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P43" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F43&amp;" "&amp;P$2&amp;" "&amp;$A43</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q43" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F43&amp;" "&amp;Q$2&amp;" "&amp;$A43</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R43" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F43&amp;" "&amp;R$2&amp;" "&amp;$A43</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S43" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F43&amp;" "&amp;S$2&amp;" "&amp;$A43</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -3592,59 +3592,59 @@
         <v>69</v>
       </c>
       <c r="F44" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G44" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E44&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H44" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B44&amp;"-"&amp;C44&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I44" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D44&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J44" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G44&amp;" "&amp;I44&amp;" "&amp;H44</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K44" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F44&amp;" "&amp;K$2&amp;" "&amp;$A44</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L44" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F44&amp;" "&amp;L$2&amp;" "&amp;$A44</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M44" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F44&amp;" "&amp;M$2&amp;" "&amp;$A44</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N44" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F44&amp;" "&amp;N$2&amp;" "&amp;$A44</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O44" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F44&amp;" "&amp;O$2&amp;" "&amp;$A44</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P44" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F44&amp;" "&amp;P$2&amp;" "&amp;$A44</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q44" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F44&amp;" "&amp;Q$2&amp;" "&amp;$A44</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R44" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F44&amp;" "&amp;R$2&amp;" "&amp;$A44</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S44" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F44&amp;" "&amp;S$2&amp;" "&amp;$A44</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -3662,59 +3662,59 @@
         <v>69</v>
       </c>
       <c r="F45" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G45" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E45&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H45" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B45&amp;"-"&amp;C45&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I45" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D45&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J45" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G45&amp;" "&amp;I45&amp;" "&amp;H45</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K45" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F45&amp;" "&amp;K$2&amp;" "&amp;$A45</f>
+        <f t="shared" ref="K45:S54" si="15">"zzz Infer "&amp;$A$2&amp;" "&amp;$F45&amp;" "&amp;K$2&amp;" "&amp;$A45</f>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L45" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F45&amp;" "&amp;L$2&amp;" "&amp;$A45</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M45" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F45&amp;" "&amp;M$2&amp;" "&amp;$A45</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N45" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F45&amp;" "&amp;N$2&amp;" "&amp;$A45</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O45" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F45&amp;" "&amp;O$2&amp;" "&amp;$A45</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P45" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F45&amp;" "&amp;P$2&amp;" "&amp;$A45</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q45" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F45&amp;" "&amp;Q$2&amp;" "&amp;$A45</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R45" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F45&amp;" "&amp;R$2&amp;" "&amp;$A45</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S45" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F45&amp;" "&amp;S$2&amp;" "&amp;$A45</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -3732,59 +3732,59 @@
         <v>69</v>
       </c>
       <c r="F46" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G46" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E46&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H46" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B46&amp;"-"&amp;C46&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I46" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D46&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J46" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G46&amp;" "&amp;I46&amp;" "&amp;H46</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K46" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F46&amp;" "&amp;K$2&amp;" "&amp;$A46</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L46" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F46&amp;" "&amp;L$2&amp;" "&amp;$A46</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M46" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F46&amp;" "&amp;M$2&amp;" "&amp;$A46</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N46" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F46&amp;" "&amp;N$2&amp;" "&amp;$A46</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O46" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F46&amp;" "&amp;O$2&amp;" "&amp;$A46</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P46" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F46&amp;" "&amp;P$2&amp;" "&amp;$A46</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q46" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F46&amp;" "&amp;Q$2&amp;" "&amp;$A46</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R46" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F46&amp;" "&amp;R$2&amp;" "&amp;$A46</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S46" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F46&amp;" "&amp;S$2&amp;" "&amp;$A46</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -3802,59 +3802,59 @@
         <v>69</v>
       </c>
       <c r="F47" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G47" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E47&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H47" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B47&amp;"-"&amp;C47&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I47" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D47&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J47" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G47&amp;" "&amp;I47&amp;" "&amp;H47</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K47" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F47&amp;" "&amp;K$2&amp;" "&amp;$A47</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L47" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F47&amp;" "&amp;L$2&amp;" "&amp;$A47</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M47" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F47&amp;" "&amp;M$2&amp;" "&amp;$A47</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N47" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F47&amp;" "&amp;N$2&amp;" "&amp;$A47</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O47" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F47&amp;" "&amp;O$2&amp;" "&amp;$A47</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P47" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F47&amp;" "&amp;P$2&amp;" "&amp;$A47</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q47" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F47&amp;" "&amp;Q$2&amp;" "&amp;$A47</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R47" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F47&amp;" "&amp;R$2&amp;" "&amp;$A47</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S47" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F47&amp;" "&amp;S$2&amp;" "&amp;$A47</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -3872,59 +3872,59 @@
         <v>69</v>
       </c>
       <c r="F48" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G48" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E48&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H48" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B48&amp;"-"&amp;C48&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I48" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D48&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J48" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G48&amp;" "&amp;I48&amp;" "&amp;H48</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K48" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F48&amp;" "&amp;K$2&amp;" "&amp;$A48</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L48" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F48&amp;" "&amp;L$2&amp;" "&amp;$A48</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M48" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F48&amp;" "&amp;M$2&amp;" "&amp;$A48</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N48" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F48&amp;" "&amp;N$2&amp;" "&amp;$A48</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O48" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F48&amp;" "&amp;O$2&amp;" "&amp;$A48</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P48" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F48&amp;" "&amp;P$2&amp;" "&amp;$A48</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q48" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F48&amp;" "&amp;Q$2&amp;" "&amp;$A48</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R48" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F48&amp;" "&amp;R$2&amp;" "&amp;$A48</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S48" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F48&amp;" "&amp;S$2&amp;" "&amp;$A48</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -3942,59 +3942,59 @@
         <v>69</v>
       </c>
       <c r="F49" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G49" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E49&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H49" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B49&amp;"-"&amp;C49&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I49" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D49&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J49" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G49&amp;" "&amp;I49&amp;" "&amp;H49</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K49" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F49&amp;" "&amp;K$2&amp;" "&amp;$A49</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L49" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F49&amp;" "&amp;L$2&amp;" "&amp;$A49</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M49" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F49&amp;" "&amp;M$2&amp;" "&amp;$A49</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N49" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F49&amp;" "&amp;N$2&amp;" "&amp;$A49</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O49" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F49&amp;" "&amp;O$2&amp;" "&amp;$A49</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P49" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F49&amp;" "&amp;P$2&amp;" "&amp;$A49</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q49" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F49&amp;" "&amp;Q$2&amp;" "&amp;$A49</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R49" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F49&amp;" "&amp;R$2&amp;" "&amp;$A49</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S49" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F49&amp;" "&amp;S$2&amp;" "&amp;$A49</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -4012,59 +4012,59 @@
         <v>69</v>
       </c>
       <c r="F50" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G50" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E50&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H50" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B50&amp;"-"&amp;C50&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I50" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D50&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J50" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G50&amp;" "&amp;I50&amp;" "&amp;H50</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K50" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F50&amp;" "&amp;K$2&amp;" "&amp;$A50</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L50" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F50&amp;" "&amp;L$2&amp;" "&amp;$A50</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M50" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F50&amp;" "&amp;M$2&amp;" "&amp;$A50</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N50" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F50&amp;" "&amp;N$2&amp;" "&amp;$A50</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O50" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F50&amp;" "&amp;O$2&amp;" "&amp;$A50</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P50" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F50&amp;" "&amp;P$2&amp;" "&amp;$A50</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q50" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F50&amp;" "&amp;Q$2&amp;" "&amp;$A50</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R50" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F50&amp;" "&amp;R$2&amp;" "&amp;$A50</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S50" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F50&amp;" "&amp;S$2&amp;" "&amp;$A50</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -4082,59 +4082,59 @@
         <v>69</v>
       </c>
       <c r="F51" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G51" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E51&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H51" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B51&amp;"-"&amp;C51&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I51" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D51&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J51" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G51&amp;" "&amp;I51&amp;" "&amp;H51</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K51" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F51&amp;" "&amp;K$2&amp;" "&amp;$A51</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L51" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F51&amp;" "&amp;L$2&amp;" "&amp;$A51</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M51" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F51&amp;" "&amp;M$2&amp;" "&amp;$A51</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N51" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F51&amp;" "&amp;N$2&amp;" "&amp;$A51</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O51" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F51&amp;" "&amp;O$2&amp;" "&amp;$A51</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P51" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F51&amp;" "&amp;P$2&amp;" "&amp;$A51</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q51" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F51&amp;" "&amp;Q$2&amp;" "&amp;$A51</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R51" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F51&amp;" "&amp;R$2&amp;" "&amp;$A51</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S51" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F51&amp;" "&amp;S$2&amp;" "&amp;$A51</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -4152,59 +4152,59 @@
         <v>69</v>
       </c>
       <c r="F52" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G52" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E52&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H52" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B52&amp;"-"&amp;C52&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I52" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D52&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J52" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G52&amp;" "&amp;I52&amp;" "&amp;H52</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K52" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F52&amp;" "&amp;K$2&amp;" "&amp;$A52</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L52" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F52&amp;" "&amp;L$2&amp;" "&amp;$A52</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M52" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F52&amp;" "&amp;M$2&amp;" "&amp;$A52</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N52" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F52&amp;" "&amp;N$2&amp;" "&amp;$A52</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O52" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F52&amp;" "&amp;O$2&amp;" "&amp;$A52</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P52" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F52&amp;" "&amp;P$2&amp;" "&amp;$A52</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q52" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F52&amp;" "&amp;Q$2&amp;" "&amp;$A52</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R52" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F52&amp;" "&amp;R$2&amp;" "&amp;$A52</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S52" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F52&amp;" "&amp;S$2&amp;" "&amp;$A52</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -4222,59 +4222,59 @@
         <v>39</v>
       </c>
       <c r="F53" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G53" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E53&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H53" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B53&amp;"-"&amp;C53&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I53" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D53&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J53" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G53&amp;" "&amp;I53&amp;" "&amp;H53</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K53" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F53&amp;" "&amp;K$2&amp;" "&amp;$A53</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L53" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F53&amp;" "&amp;L$2&amp;" "&amp;$A53</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M53" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F53&amp;" "&amp;M$2&amp;" "&amp;$A53</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N53" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F53&amp;" "&amp;N$2&amp;" "&amp;$A53</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O53" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F53&amp;" "&amp;O$2&amp;" "&amp;$A53</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P53" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F53&amp;" "&amp;P$2&amp;" "&amp;$A53</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q53" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F53&amp;" "&amp;Q$2&amp;" "&amp;$A53</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R53" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F53&amp;" "&amp;R$2&amp;" "&amp;$A53</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S53" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F53&amp;" "&amp;S$2&amp;" "&amp;$A53</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -4292,59 +4292,59 @@
         <v>39</v>
       </c>
       <c r="F54" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G54" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E54&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H54" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B54&amp;"-"&amp;C54&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I54" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D54&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J54" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G54&amp;" "&amp;I54&amp;" "&amp;H54</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K54" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F54&amp;" "&amp;K$2&amp;" "&amp;$A54</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L54" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F54&amp;" "&amp;L$2&amp;" "&amp;$A54</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M54" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F54&amp;" "&amp;M$2&amp;" "&amp;$A54</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N54" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F54&amp;" "&amp;N$2&amp;" "&amp;$A54</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O54" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F54&amp;" "&amp;O$2&amp;" "&amp;$A54</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P54" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F54&amp;" "&amp;P$2&amp;" "&amp;$A54</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q54" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F54&amp;" "&amp;Q$2&amp;" "&amp;$A54</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R54" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F54&amp;" "&amp;R$2&amp;" "&amp;$A54</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S54" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F54&amp;" "&amp;S$2&amp;" "&amp;$A54</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -4362,59 +4362,59 @@
         <v>39</v>
       </c>
       <c r="F55" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G55" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E55&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H55" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B55&amp;"-"&amp;C55&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I55" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D55&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J55" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G55&amp;" "&amp;I55&amp;" "&amp;H55</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K55" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F55&amp;" "&amp;K$2&amp;" "&amp;$A55</f>
+        <f t="shared" ref="K55:S64" si="16">"zzz Infer "&amp;$A$2&amp;" "&amp;$F55&amp;" "&amp;K$2&amp;" "&amp;$A55</f>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L55" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F55&amp;" "&amp;L$2&amp;" "&amp;$A55</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M55" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F55&amp;" "&amp;M$2&amp;" "&amp;$A55</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N55" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F55&amp;" "&amp;N$2&amp;" "&amp;$A55</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O55" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F55&amp;" "&amp;O$2&amp;" "&amp;$A55</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P55" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F55&amp;" "&amp;P$2&amp;" "&amp;$A55</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q55" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F55&amp;" "&amp;Q$2&amp;" "&amp;$A55</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R55" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F55&amp;" "&amp;R$2&amp;" "&amp;$A55</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S55" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F55&amp;" "&amp;S$2&amp;" "&amp;$A55</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -4432,59 +4432,59 @@
         <v>39</v>
       </c>
       <c r="F56" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G56" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E56&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H56" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B56&amp;"-"&amp;C56&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I56" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D56&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J56" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G56&amp;" "&amp;I56&amp;" "&amp;H56</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K56" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F56&amp;" "&amp;K$2&amp;" "&amp;$A56</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L56" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F56&amp;" "&amp;L$2&amp;" "&amp;$A56</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M56" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F56&amp;" "&amp;M$2&amp;" "&amp;$A56</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N56" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F56&amp;" "&amp;N$2&amp;" "&amp;$A56</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O56" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F56&amp;" "&amp;O$2&amp;" "&amp;$A56</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P56" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F56&amp;" "&amp;P$2&amp;" "&amp;$A56</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q56" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F56&amp;" "&amp;Q$2&amp;" "&amp;$A56</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R56" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F56&amp;" "&amp;R$2&amp;" "&amp;$A56</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S56" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F56&amp;" "&amp;S$2&amp;" "&amp;$A56</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -4503,59 +4503,59 @@
         <v>39</v>
       </c>
       <c r="F57" s="8" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G57" s="8" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E57&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H57" s="8" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B57&amp;"-"&amp;C57&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I57" s="8" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D57&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J57" s="8" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G57&amp;" "&amp;I57&amp;" "&amp;H57</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K57" s="8" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F57&amp;" "&amp;K$2&amp;" "&amp;$A57</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L57" s="8" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F57&amp;" "&amp;L$2&amp;" "&amp;$A57</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M57" s="8" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F57&amp;" "&amp;M$2&amp;" "&amp;$A57</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N57" s="8" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F57&amp;" "&amp;N$2&amp;" "&amp;$A57</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O57" s="8" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F57&amp;" "&amp;O$2&amp;" "&amp;$A57</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P57" s="8" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F57&amp;" "&amp;P$2&amp;" "&amp;$A57</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q57" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F57&amp;" "&amp;Q$2&amp;" "&amp;$A57</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R57" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F57&amp;" "&amp;R$2&amp;" "&amp;$A57</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S57" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F57&amp;" "&amp;S$2&amp;" "&amp;$A57</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -4573,59 +4573,59 @@
         <v>39</v>
       </c>
       <c r="F58" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G58" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E58&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H58" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B58&amp;"-"&amp;C58&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I58" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D58&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J58" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G58&amp;" "&amp;I58&amp;" "&amp;H58</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K58" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F58&amp;" "&amp;K$2&amp;" "&amp;$A58</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L58" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F58&amp;" "&amp;L$2&amp;" "&amp;$A58</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M58" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F58&amp;" "&amp;M$2&amp;" "&amp;$A58</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N58" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F58&amp;" "&amp;N$2&amp;" "&amp;$A58</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O58" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F58&amp;" "&amp;O$2&amp;" "&amp;$A58</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P58" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F58&amp;" "&amp;P$2&amp;" "&amp;$A58</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q58" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F58&amp;" "&amp;Q$2&amp;" "&amp;$A58</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R58" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F58&amp;" "&amp;R$2&amp;" "&amp;$A58</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S58" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F58&amp;" "&amp;S$2&amp;" "&amp;$A58</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -4643,59 +4643,59 @@
         <v>39</v>
       </c>
       <c r="F59" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G59" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E59&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H59" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B59&amp;"-"&amp;C59&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I59" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D59&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J59" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G59&amp;" "&amp;I59&amp;" "&amp;H59</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K59" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F59&amp;" "&amp;K$2&amp;" "&amp;$A59</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L59" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F59&amp;" "&amp;L$2&amp;" "&amp;$A59</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M59" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F59&amp;" "&amp;M$2&amp;" "&amp;$A59</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N59" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F59&amp;" "&amp;N$2&amp;" "&amp;$A59</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O59" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F59&amp;" "&amp;O$2&amp;" "&amp;$A59</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P59" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F59&amp;" "&amp;P$2&amp;" "&amp;$A59</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q59" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F59&amp;" "&amp;Q$2&amp;" "&amp;$A59</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R59" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F59&amp;" "&amp;R$2&amp;" "&amp;$A59</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S59" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F59&amp;" "&amp;S$2&amp;" "&amp;$A59</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -4713,59 +4713,59 @@
         <v>39</v>
       </c>
       <c r="F60" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G60" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E60&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H60" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B60&amp;"-"&amp;C60&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I60" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D60&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J60" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G60&amp;" "&amp;I60&amp;" "&amp;H60</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K60" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F60&amp;" "&amp;K$2&amp;" "&amp;$A60</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L60" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F60&amp;" "&amp;L$2&amp;" "&amp;$A60</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M60" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F60&amp;" "&amp;M$2&amp;" "&amp;$A60</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N60" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F60&amp;" "&amp;N$2&amp;" "&amp;$A60</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O60" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F60&amp;" "&amp;O$2&amp;" "&amp;$A60</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P60" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F60&amp;" "&amp;P$2&amp;" "&amp;$A60</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q60" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F60&amp;" "&amp;Q$2&amp;" "&amp;$A60</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R60" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F60&amp;" "&amp;R$2&amp;" "&amp;$A60</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S60" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F60&amp;" "&amp;S$2&amp;" "&amp;$A60</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -4783,59 +4783,59 @@
         <v>39</v>
       </c>
       <c r="F61" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G61" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E61&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H61" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B61&amp;"-"&amp;C61&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I61" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D61&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J61" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G61&amp;" "&amp;I61&amp;" "&amp;H61</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K61" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F61&amp;" "&amp;K$2&amp;" "&amp;$A61</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L61" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F61&amp;" "&amp;L$2&amp;" "&amp;$A61</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M61" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F61&amp;" "&amp;M$2&amp;" "&amp;$A61</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N61" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F61&amp;" "&amp;N$2&amp;" "&amp;$A61</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O61" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F61&amp;" "&amp;O$2&amp;" "&amp;$A61</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P61" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F61&amp;" "&amp;P$2&amp;" "&amp;$A61</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q61" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F61&amp;" "&amp;Q$2&amp;" "&amp;$A61</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R61" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F61&amp;" "&amp;R$2&amp;" "&amp;$A61</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S61" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F61&amp;" "&amp;S$2&amp;" "&amp;$A61</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -4853,59 +4853,59 @@
         <v>39</v>
       </c>
       <c r="F62" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G62" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E62&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H62" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B62&amp;"-"&amp;C62&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I62" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D62&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J62" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G62&amp;" "&amp;I62&amp;" "&amp;H62</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K62" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F62&amp;" "&amp;K$2&amp;" "&amp;$A62</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L62" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F62&amp;" "&amp;L$2&amp;" "&amp;$A62</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M62" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F62&amp;" "&amp;M$2&amp;" "&amp;$A62</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N62" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F62&amp;" "&amp;N$2&amp;" "&amp;$A62</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O62" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F62&amp;" "&amp;O$2&amp;" "&amp;$A62</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P62" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F62&amp;" "&amp;P$2&amp;" "&amp;$A62</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q62" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F62&amp;" "&amp;Q$2&amp;" "&amp;$A62</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R62" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F62&amp;" "&amp;R$2&amp;" "&amp;$A62</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S62" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F62&amp;" "&amp;S$2&amp;" "&amp;$A62</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -4923,59 +4923,59 @@
         <v>39</v>
       </c>
       <c r="F63" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G63" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E63&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H63" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B63&amp;"-"&amp;C63&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I63" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D63&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J63" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G63&amp;" "&amp;I63&amp;" "&amp;H63</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K63" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F63&amp;" "&amp;K$2&amp;" "&amp;$A63</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L63" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F63&amp;" "&amp;L$2&amp;" "&amp;$A63</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M63" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F63&amp;" "&amp;M$2&amp;" "&amp;$A63</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N63" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F63&amp;" "&amp;N$2&amp;" "&amp;$A63</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O63" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F63&amp;" "&amp;O$2&amp;" "&amp;$A63</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P63" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F63&amp;" "&amp;P$2&amp;" "&amp;$A63</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q63" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F63&amp;" "&amp;Q$2&amp;" "&amp;$A63</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R63" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F63&amp;" "&amp;R$2&amp;" "&amp;$A63</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S63" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F63&amp;" "&amp;S$2&amp;" "&amp;$A63</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -4993,59 +4993,59 @@
         <v>39</v>
       </c>
       <c r="F64" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G64" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E64&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H64" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B64&amp;"-"&amp;C64&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I64" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D64&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J64" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G64&amp;" "&amp;I64&amp;" "&amp;H64</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K64" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F64&amp;" "&amp;K$2&amp;" "&amp;$A64</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L64" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F64&amp;" "&amp;L$2&amp;" "&amp;$A64</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M64" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F64&amp;" "&amp;M$2&amp;" "&amp;$A64</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N64" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F64&amp;" "&amp;N$2&amp;" "&amp;$A64</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O64" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F64&amp;" "&amp;O$2&amp;" "&amp;$A64</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P64" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F64&amp;" "&amp;P$2&amp;" "&amp;$A64</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q64" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F64&amp;" "&amp;Q$2&amp;" "&amp;$A64</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R64" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F64&amp;" "&amp;R$2&amp;" "&amp;$A64</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S64" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F64&amp;" "&amp;S$2&amp;" "&amp;$A64</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -5063,59 +5063,59 @@
         <v>67</v>
       </c>
       <c r="F65" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G65" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E65&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H65" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B65&amp;"-"&amp;C65&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I65" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D65&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J65" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G65&amp;" "&amp;I65&amp;" "&amp;H65</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K65" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F65&amp;" "&amp;K$2&amp;" "&amp;$A65</f>
+        <f t="shared" ref="K65:S74" si="17">"zzz Infer "&amp;$A$2&amp;" "&amp;$F65&amp;" "&amp;K$2&amp;" "&amp;$A65</f>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L65" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F65&amp;" "&amp;L$2&amp;" "&amp;$A65</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M65" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F65&amp;" "&amp;M$2&amp;" "&amp;$A65</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N65" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F65&amp;" "&amp;N$2&amp;" "&amp;$A65</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O65" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F65&amp;" "&amp;O$2&amp;" "&amp;$A65</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P65" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F65&amp;" "&amp;P$2&amp;" "&amp;$A65</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q65" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F65&amp;" "&amp;Q$2&amp;" "&amp;$A65</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R65" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F65&amp;" "&amp;R$2&amp;" "&amp;$A65</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S65" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F65&amp;" "&amp;S$2&amp;" "&amp;$A65</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -5133,59 +5133,59 @@
         <v>67</v>
       </c>
       <c r="F66" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G66" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E66&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H66" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B66&amp;"-"&amp;C66&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I66" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D66&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J66" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G66&amp;" "&amp;I66&amp;" "&amp;H66</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K66" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F66&amp;" "&amp;K$2&amp;" "&amp;$A66</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L66" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F66&amp;" "&amp;L$2&amp;" "&amp;$A66</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M66" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F66&amp;" "&amp;M$2&amp;" "&amp;$A66</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N66" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F66&amp;" "&amp;N$2&amp;" "&amp;$A66</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O66" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F66&amp;" "&amp;O$2&amp;" "&amp;$A66</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P66" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F66&amp;" "&amp;P$2&amp;" "&amp;$A66</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q66" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F66&amp;" "&amp;Q$2&amp;" "&amp;$A66</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R66" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F66&amp;" "&amp;R$2&amp;" "&amp;$A66</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S66" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F66&amp;" "&amp;S$2&amp;" "&amp;$A66</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -5203,59 +5203,59 @@
         <v>67</v>
       </c>
       <c r="F67" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G67" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E67&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H67" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B67&amp;"-"&amp;C67&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I67" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D67&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J67" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G67&amp;" "&amp;I67&amp;" "&amp;H67</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K67" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F67&amp;" "&amp;K$2&amp;" "&amp;$A67</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L67" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F67&amp;" "&amp;L$2&amp;" "&amp;$A67</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M67" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F67&amp;" "&amp;M$2&amp;" "&amp;$A67</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N67" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F67&amp;" "&amp;N$2&amp;" "&amp;$A67</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O67" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F67&amp;" "&amp;O$2&amp;" "&amp;$A67</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P67" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F67&amp;" "&amp;P$2&amp;" "&amp;$A67</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q67" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F67&amp;" "&amp;Q$2&amp;" "&amp;$A67</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R67" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F67&amp;" "&amp;R$2&amp;" "&amp;$A67</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S67" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F67&amp;" "&amp;S$2&amp;" "&amp;$A67</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -5273,59 +5273,59 @@
         <v>67</v>
       </c>
       <c r="F68" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G68" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E68&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H68" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B68&amp;"-"&amp;C68&amp;".xml"</f>
+        <f t="shared" si="12"/>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I68" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D68&amp;".xml"</f>
+        <f t="shared" si="13"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J68" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G68&amp;" "&amp;I68&amp;" "&amp;H68</f>
+        <f t="shared" si="14"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K68" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F68&amp;" "&amp;K$2&amp;" "&amp;$A68</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L68" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F68&amp;" "&amp;L$2&amp;" "&amp;$A68</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M68" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F68&amp;" "&amp;M$2&amp;" "&amp;$A68</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N68" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F68&amp;" "&amp;N$2&amp;" "&amp;$A68</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O68" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F68&amp;" "&amp;O$2&amp;" "&amp;$A68</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P68" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F68&amp;" "&amp;P$2&amp;" "&amp;$A68</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q68" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F68&amp;" "&amp;Q$2&amp;" "&amp;$A68</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R68" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F68&amp;" "&amp;R$2&amp;" "&amp;$A68</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S68" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F68&amp;" "&amp;S$2&amp;" "&amp;$A68</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -5344,59 +5344,59 @@
         <v>67</v>
       </c>
       <c r="F69" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" ref="F69:F100" si="18">"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G69" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E69&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" ref="G69:G100" si="19">"Config.NoInclude/DataShapes/"&amp;E69&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H69" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B69&amp;"-"&amp;C69&amp;".xml"</f>
+        <f t="shared" ref="H69:H100" si="20">"Config.NoInclude/Engines/"&amp;B69&amp;"-"&amp;C69&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I69" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D69&amp;".xml"</f>
+        <f t="shared" ref="I69:I100" si="21">"Config.NoInclude/DataSets/"&amp;D69&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J69" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G69&amp;" "&amp;I69&amp;" "&amp;H69</f>
+        <f t="shared" ref="J69:J100" si="22">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G69&amp;" "&amp;I69&amp;" "&amp;H69</f>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K69" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F69&amp;" "&amp;K$2&amp;" "&amp;$A69</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L69" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F69&amp;" "&amp;L$2&amp;" "&amp;$A69</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M69" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F69&amp;" "&amp;M$2&amp;" "&amp;$A69</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N69" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F69&amp;" "&amp;N$2&amp;" "&amp;$A69</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O69" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F69&amp;" "&amp;O$2&amp;" "&amp;$A69</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P69" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F69&amp;" "&amp;P$2&amp;" "&amp;$A69</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q69" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F69&amp;" "&amp;Q$2&amp;" "&amp;$A69</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R69" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F69&amp;" "&amp;R$2&amp;" "&amp;$A69</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S69" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F69&amp;" "&amp;S$2&amp;" "&amp;$A69</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -5414,59 +5414,59 @@
         <v>67</v>
       </c>
       <c r="F70" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G70" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E70&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H70" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B70&amp;"-"&amp;C70&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I70" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D70&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J70" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G70&amp;" "&amp;I70&amp;" "&amp;H70</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K70" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F70&amp;" "&amp;K$2&amp;" "&amp;$A70</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L70" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F70&amp;" "&amp;L$2&amp;" "&amp;$A70</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M70" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F70&amp;" "&amp;M$2&amp;" "&amp;$A70</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N70" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F70&amp;" "&amp;N$2&amp;" "&amp;$A70</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O70" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F70&amp;" "&amp;O$2&amp;" "&amp;$A70</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P70" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F70&amp;" "&amp;P$2&amp;" "&amp;$A70</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q70" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F70&amp;" "&amp;Q$2&amp;" "&amp;$A70</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R70" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F70&amp;" "&amp;R$2&amp;" "&amp;$A70</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S70" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F70&amp;" "&amp;S$2&amp;" "&amp;$A70</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -5484,59 +5484,59 @@
         <v>67</v>
       </c>
       <c r="F71" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G71" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E71&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H71" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B71&amp;"-"&amp;C71&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I71" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D71&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J71" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G71&amp;" "&amp;I71&amp;" "&amp;H71</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K71" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F71&amp;" "&amp;K$2&amp;" "&amp;$A71</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L71" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F71&amp;" "&amp;L$2&amp;" "&amp;$A71</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M71" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F71&amp;" "&amp;M$2&amp;" "&amp;$A71</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N71" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F71&amp;" "&amp;N$2&amp;" "&amp;$A71</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O71" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F71&amp;" "&amp;O$2&amp;" "&amp;$A71</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P71" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F71&amp;" "&amp;P$2&amp;" "&amp;$A71</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q71" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F71&amp;" "&amp;Q$2&amp;" "&amp;$A71</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R71" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F71&amp;" "&amp;R$2&amp;" "&amp;$A71</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S71" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F71&amp;" "&amp;S$2&amp;" "&amp;$A71</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -5554,59 +5554,59 @@
         <v>67</v>
       </c>
       <c r="F72" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G72" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E72&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H72" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B72&amp;"-"&amp;C72&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I72" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D72&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J72" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G72&amp;" "&amp;I72&amp;" "&amp;H72</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K72" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F72&amp;" "&amp;K$2&amp;" "&amp;$A72</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L72" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F72&amp;" "&amp;L$2&amp;" "&amp;$A72</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M72" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F72&amp;" "&amp;M$2&amp;" "&amp;$A72</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N72" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F72&amp;" "&amp;N$2&amp;" "&amp;$A72</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O72" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F72&amp;" "&amp;O$2&amp;" "&amp;$A72</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P72" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F72&amp;" "&amp;P$2&amp;" "&amp;$A72</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q72" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F72&amp;" "&amp;Q$2&amp;" "&amp;$A72</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R72" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F72&amp;" "&amp;R$2&amp;" "&amp;$A72</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S72" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F72&amp;" "&amp;S$2&amp;" "&amp;$A72</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -5624,59 +5624,59 @@
         <v>67</v>
       </c>
       <c r="F73" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G73" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E73&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H73" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B73&amp;"-"&amp;C73&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I73" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D73&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J73" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G73&amp;" "&amp;I73&amp;" "&amp;H73</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K73" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F73&amp;" "&amp;K$2&amp;" "&amp;$A73</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L73" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F73&amp;" "&amp;L$2&amp;" "&amp;$A73</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M73" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F73&amp;" "&amp;M$2&amp;" "&amp;$A73</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N73" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F73&amp;" "&amp;N$2&amp;" "&amp;$A73</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O73" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F73&amp;" "&amp;O$2&amp;" "&amp;$A73</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P73" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F73&amp;" "&amp;P$2&amp;" "&amp;$A73</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q73" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F73&amp;" "&amp;Q$2&amp;" "&amp;$A73</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R73" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F73&amp;" "&amp;R$2&amp;" "&amp;$A73</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S73" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F73&amp;" "&amp;S$2&amp;" "&amp;$A73</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -5694,59 +5694,59 @@
         <v>67</v>
       </c>
       <c r="F74" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G74" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E74&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H74" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B74&amp;"-"&amp;C74&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I74" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D74&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J74" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G74&amp;" "&amp;I74&amp;" "&amp;H74</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K74" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F74&amp;" "&amp;K$2&amp;" "&amp;$A74</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L74" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F74&amp;" "&amp;L$2&amp;" "&amp;$A74</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M74" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F74&amp;" "&amp;M$2&amp;" "&amp;$A74</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N74" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F74&amp;" "&amp;N$2&amp;" "&amp;$A74</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O74" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F74&amp;" "&amp;O$2&amp;" "&amp;$A74</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P74" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F74&amp;" "&amp;P$2&amp;" "&amp;$A74</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q74" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F74&amp;" "&amp;Q$2&amp;" "&amp;$A74</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R74" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F74&amp;" "&amp;R$2&amp;" "&amp;$A74</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S74" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F74&amp;" "&amp;S$2&amp;" "&amp;$A74</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -5764,59 +5764,59 @@
         <v>67</v>
       </c>
       <c r="F75" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G75" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E75&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H75" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B75&amp;"-"&amp;C75&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I75" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D75&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J75" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G75&amp;" "&amp;I75&amp;" "&amp;H75</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K75" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F75&amp;" "&amp;K$2&amp;" "&amp;$A75</f>
+        <f t="shared" ref="K75:S84" si="23">"zzz Infer "&amp;$A$2&amp;" "&amp;$F75&amp;" "&amp;K$2&amp;" "&amp;$A75</f>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L75" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F75&amp;" "&amp;L$2&amp;" "&amp;$A75</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M75" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F75&amp;" "&amp;M$2&amp;" "&amp;$A75</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N75" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F75&amp;" "&amp;N$2&amp;" "&amp;$A75</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O75" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F75&amp;" "&amp;O$2&amp;" "&amp;$A75</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P75" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F75&amp;" "&amp;P$2&amp;" "&amp;$A75</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q75" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F75&amp;" "&amp;Q$2&amp;" "&amp;$A75</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R75" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F75&amp;" "&amp;R$2&amp;" "&amp;$A75</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S75" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F75&amp;" "&amp;S$2&amp;" "&amp;$A75</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -5834,59 +5834,59 @@
         <v>67</v>
       </c>
       <c r="F76" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G76" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E76&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H76" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B76&amp;"-"&amp;C76&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I76" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D76&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J76" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G76&amp;" "&amp;I76&amp;" "&amp;H76</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K76" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F76&amp;" "&amp;K$2&amp;" "&amp;$A76</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L76" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F76&amp;" "&amp;L$2&amp;" "&amp;$A76</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M76" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F76&amp;" "&amp;M$2&amp;" "&amp;$A76</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N76" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F76&amp;" "&amp;N$2&amp;" "&amp;$A76</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O76" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F76&amp;" "&amp;O$2&amp;" "&amp;$A76</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P76" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F76&amp;" "&amp;P$2&amp;" "&amp;$A76</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q76" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F76&amp;" "&amp;Q$2&amp;" "&amp;$A76</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R76" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F76&amp;" "&amp;R$2&amp;" "&amp;$A76</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S76" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F76&amp;" "&amp;S$2&amp;" "&amp;$A76</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -5905,59 +5905,59 @@
         <v>68</v>
       </c>
       <c r="F77" s="8" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G77" s="8" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E77&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H77" s="8" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B77&amp;"-"&amp;C77&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I77" s="8" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D77&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J77" s="8" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G77&amp;" "&amp;I77&amp;" "&amp;H77</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K77" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F77&amp;" "&amp;K$2&amp;" "&amp;$A77</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L77" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F77&amp;" "&amp;L$2&amp;" "&amp;$A77</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M77" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F77&amp;" "&amp;M$2&amp;" "&amp;$A77</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N77" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F77&amp;" "&amp;N$2&amp;" "&amp;$A77</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O77" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F77&amp;" "&amp;O$2&amp;" "&amp;$A77</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P77" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F77&amp;" "&amp;P$2&amp;" "&amp;$A77</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q77" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F77&amp;" "&amp;Q$2&amp;" "&amp;$A77</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R77" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F77&amp;" "&amp;R$2&amp;" "&amp;$A77</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S77" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F77&amp;" "&amp;S$2&amp;" "&amp;$A77</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -5975,59 +5975,59 @@
         <v>68</v>
       </c>
       <c r="F78" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G78" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E78&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H78" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B78&amp;"-"&amp;C78&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I78" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D78&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J78" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G78&amp;" "&amp;I78&amp;" "&amp;H78</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K78" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F78&amp;" "&amp;K$2&amp;" "&amp;$A78</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L78" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F78&amp;" "&amp;L$2&amp;" "&amp;$A78</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M78" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F78&amp;" "&amp;M$2&amp;" "&amp;$A78</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N78" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F78&amp;" "&amp;N$2&amp;" "&amp;$A78</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O78" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F78&amp;" "&amp;O$2&amp;" "&amp;$A78</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P78" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F78&amp;" "&amp;P$2&amp;" "&amp;$A78</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q78" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F78&amp;" "&amp;Q$2&amp;" "&amp;$A78</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R78" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F78&amp;" "&amp;R$2&amp;" "&amp;$A78</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S78" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F78&amp;" "&amp;S$2&amp;" "&amp;$A78</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -6045,59 +6045,59 @@
         <v>68</v>
       </c>
       <c r="F79" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G79" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E79&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H79" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B79&amp;"-"&amp;C79&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I79" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D79&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J79" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G79&amp;" "&amp;I79&amp;" "&amp;H79</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K79" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F79&amp;" "&amp;K$2&amp;" "&amp;$A79</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L79" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F79&amp;" "&amp;L$2&amp;" "&amp;$A79</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M79" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F79&amp;" "&amp;M$2&amp;" "&amp;$A79</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N79" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F79&amp;" "&amp;N$2&amp;" "&amp;$A79</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O79" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F79&amp;" "&amp;O$2&amp;" "&amp;$A79</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P79" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F79&amp;" "&amp;P$2&amp;" "&amp;$A79</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q79" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F79&amp;" "&amp;Q$2&amp;" "&amp;$A79</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R79" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F79&amp;" "&amp;R$2&amp;" "&amp;$A79</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S79" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F79&amp;" "&amp;S$2&amp;" "&amp;$A79</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -6115,59 +6115,59 @@
         <v>68</v>
       </c>
       <c r="F80" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G80" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E80&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H80" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B80&amp;"-"&amp;C80&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I80" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D80&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J80" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G80&amp;" "&amp;I80&amp;" "&amp;H80</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K80" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F80&amp;" "&amp;K$2&amp;" "&amp;$A80</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L80" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F80&amp;" "&amp;L$2&amp;" "&amp;$A80</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M80" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F80&amp;" "&amp;M$2&amp;" "&amp;$A80</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N80" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F80&amp;" "&amp;N$2&amp;" "&amp;$A80</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O80" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F80&amp;" "&amp;O$2&amp;" "&amp;$A80</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P80" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F80&amp;" "&amp;P$2&amp;" "&amp;$A80</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q80" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F80&amp;" "&amp;Q$2&amp;" "&amp;$A80</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R80" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F80&amp;" "&amp;R$2&amp;" "&amp;$A80</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S80" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F80&amp;" "&amp;S$2&amp;" "&amp;$A80</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -6185,59 +6185,59 @@
         <v>68</v>
       </c>
       <c r="F81" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G81" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E81&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H81" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B81&amp;"-"&amp;C81&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I81" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D81&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J81" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G81&amp;" "&amp;I81&amp;" "&amp;H81</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K81" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F81&amp;" "&amp;K$2&amp;" "&amp;$A81</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L81" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F81&amp;" "&amp;L$2&amp;" "&amp;$A81</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M81" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F81&amp;" "&amp;M$2&amp;" "&amp;$A81</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N81" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F81&amp;" "&amp;N$2&amp;" "&amp;$A81</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O81" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F81&amp;" "&amp;O$2&amp;" "&amp;$A81</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P81" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F81&amp;" "&amp;P$2&amp;" "&amp;$A81</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q81" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F81&amp;" "&amp;Q$2&amp;" "&amp;$A81</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R81" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F81&amp;" "&amp;R$2&amp;" "&amp;$A81</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S81" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F81&amp;" "&amp;S$2&amp;" "&amp;$A81</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -6255,59 +6255,59 @@
         <v>68</v>
       </c>
       <c r="F82" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G82" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E82&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H82" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B82&amp;"-"&amp;C82&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I82" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D82&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J82" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G82&amp;" "&amp;I82&amp;" "&amp;H82</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K82" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F82&amp;" "&amp;K$2&amp;" "&amp;$A82</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L82" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F82&amp;" "&amp;L$2&amp;" "&amp;$A82</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M82" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F82&amp;" "&amp;M$2&amp;" "&amp;$A82</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N82" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F82&amp;" "&amp;N$2&amp;" "&amp;$A82</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O82" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F82&amp;" "&amp;O$2&amp;" "&amp;$A82</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P82" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F82&amp;" "&amp;P$2&amp;" "&amp;$A82</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q82" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F82&amp;" "&amp;Q$2&amp;" "&amp;$A82</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R82" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F82&amp;" "&amp;R$2&amp;" "&amp;$A82</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S82" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F82&amp;" "&amp;S$2&amp;" "&amp;$A82</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -6325,59 +6325,59 @@
         <v>68</v>
       </c>
       <c r="F83" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G83" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E83&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H83" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B83&amp;"-"&amp;C83&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I83" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D83&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J83" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G83&amp;" "&amp;I83&amp;" "&amp;H83</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K83" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F83&amp;" "&amp;K$2&amp;" "&amp;$A83</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L83" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F83&amp;" "&amp;L$2&amp;" "&amp;$A83</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M83" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F83&amp;" "&amp;M$2&amp;" "&amp;$A83</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N83" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F83&amp;" "&amp;N$2&amp;" "&amp;$A83</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O83" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F83&amp;" "&amp;O$2&amp;" "&amp;$A83</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P83" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F83&amp;" "&amp;P$2&amp;" "&amp;$A83</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q83" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F83&amp;" "&amp;Q$2&amp;" "&amp;$A83</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R83" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F83&amp;" "&amp;R$2&amp;" "&amp;$A83</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S83" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F83&amp;" "&amp;S$2&amp;" "&amp;$A83</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -6395,59 +6395,59 @@
         <v>68</v>
       </c>
       <c r="F84" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G84" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E84&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H84" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B84&amp;"-"&amp;C84&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I84" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D84&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J84" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G84&amp;" "&amp;I84&amp;" "&amp;H84</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K84" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F84&amp;" "&amp;K$2&amp;" "&amp;$A84</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L84" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F84&amp;" "&amp;L$2&amp;" "&amp;$A84</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M84" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F84&amp;" "&amp;M$2&amp;" "&amp;$A84</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N84" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F84&amp;" "&amp;N$2&amp;" "&amp;$A84</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O84" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F84&amp;" "&amp;O$2&amp;" "&amp;$A84</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P84" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F84&amp;" "&amp;P$2&amp;" "&amp;$A84</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q84" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F84&amp;" "&amp;Q$2&amp;" "&amp;$A84</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R84" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F84&amp;" "&amp;R$2&amp;" "&amp;$A84</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S84" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F84&amp;" "&amp;S$2&amp;" "&amp;$A84</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -6465,59 +6465,59 @@
         <v>68</v>
       </c>
       <c r="F85" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G85" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E85&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H85" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B85&amp;"-"&amp;C85&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I85" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D85&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J85" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G85&amp;" "&amp;I85&amp;" "&amp;H85</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K85" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F85&amp;" "&amp;K$2&amp;" "&amp;$A85</f>
+        <f t="shared" ref="K85:S94" si="24">"zzz Infer "&amp;$A$2&amp;" "&amp;$F85&amp;" "&amp;K$2&amp;" "&amp;$A85</f>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L85" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F85&amp;" "&amp;L$2&amp;" "&amp;$A85</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M85" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F85&amp;" "&amp;M$2&amp;" "&amp;$A85</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N85" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F85&amp;" "&amp;N$2&amp;" "&amp;$A85</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O85" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F85&amp;" "&amp;O$2&amp;" "&amp;$A85</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P85" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F85&amp;" "&amp;P$2&amp;" "&amp;$A85</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q85" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F85&amp;" "&amp;Q$2&amp;" "&amp;$A85</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R85" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F85&amp;" "&amp;R$2&amp;" "&amp;$A85</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S85" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F85&amp;" "&amp;S$2&amp;" "&amp;$A85</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -6535,59 +6535,59 @@
         <v>68</v>
       </c>
       <c r="F86" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G86" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E86&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H86" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B86&amp;"-"&amp;C86&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I86" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D86&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J86" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G86&amp;" "&amp;I86&amp;" "&amp;H86</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K86" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F86&amp;" "&amp;K$2&amp;" "&amp;$A86</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L86" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F86&amp;" "&amp;L$2&amp;" "&amp;$A86</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M86" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F86&amp;" "&amp;M$2&amp;" "&amp;$A86</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N86" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F86&amp;" "&amp;N$2&amp;" "&amp;$A86</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O86" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F86&amp;" "&amp;O$2&amp;" "&amp;$A86</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P86" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F86&amp;" "&amp;P$2&amp;" "&amp;$A86</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q86" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F86&amp;" "&amp;Q$2&amp;" "&amp;$A86</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R86" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F86&amp;" "&amp;R$2&amp;" "&amp;$A86</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S86" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F86&amp;" "&amp;S$2&amp;" "&amp;$A86</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -6605,59 +6605,59 @@
         <v>68</v>
       </c>
       <c r="F87" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G87" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E87&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H87" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B87&amp;"-"&amp;C87&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I87" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D87&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J87" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G87&amp;" "&amp;I87&amp;" "&amp;H87</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K87" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F87&amp;" "&amp;K$2&amp;" "&amp;$A87</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L87" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F87&amp;" "&amp;L$2&amp;" "&amp;$A87</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M87" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F87&amp;" "&amp;M$2&amp;" "&amp;$A87</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N87" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F87&amp;" "&amp;N$2&amp;" "&amp;$A87</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O87" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F87&amp;" "&amp;O$2&amp;" "&amp;$A87</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P87" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F87&amp;" "&amp;P$2&amp;" "&amp;$A87</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q87" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F87&amp;" "&amp;Q$2&amp;" "&amp;$A87</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R87" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F87&amp;" "&amp;R$2&amp;" "&amp;$A87</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S87" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F87&amp;" "&amp;S$2&amp;" "&amp;$A87</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -6675,59 +6675,59 @@
         <v>68</v>
       </c>
       <c r="F88" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G88" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E88&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H88" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B88&amp;"-"&amp;C88&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I88" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D88&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J88" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G88&amp;" "&amp;I88&amp;" "&amp;H88</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K88" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F88&amp;" "&amp;K$2&amp;" "&amp;$A88</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L88" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F88&amp;" "&amp;L$2&amp;" "&amp;$A88</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M88" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F88&amp;" "&amp;M$2&amp;" "&amp;$A88</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N88" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F88&amp;" "&amp;N$2&amp;" "&amp;$A88</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O88" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F88&amp;" "&amp;O$2&amp;" "&amp;$A88</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P88" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F88&amp;" "&amp;P$2&amp;" "&amp;$A88</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q88" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F88&amp;" "&amp;Q$2&amp;" "&amp;$A88</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R88" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F88&amp;" "&amp;R$2&amp;" "&amp;$A88</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S88" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F88&amp;" "&amp;S$2&amp;" "&amp;$A88</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -6746,59 +6746,59 @@
         <v>500</v>
       </c>
       <c r="F89" s="8" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G89" s="8" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E89&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H89" s="8" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B89&amp;"-"&amp;C89&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I89" s="8" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D89&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J89" s="8" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G89&amp;" "&amp;I89&amp;" "&amp;H89</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K89" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F89&amp;" "&amp;K$2&amp;" "&amp;$A89</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L89" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F89&amp;" "&amp;L$2&amp;" "&amp;$A89</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M89" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F89&amp;" "&amp;M$2&amp;" "&amp;$A89</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N89" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F89&amp;" "&amp;N$2&amp;" "&amp;$A89</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O89" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F89&amp;" "&amp;O$2&amp;" "&amp;$A89</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P89" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F89&amp;" "&amp;P$2&amp;" "&amp;$A89</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q89" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F89&amp;" "&amp;Q$2&amp;" "&amp;$A89</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R89" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F89&amp;" "&amp;R$2&amp;" "&amp;$A89</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S89" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F89&amp;" "&amp;S$2&amp;" "&amp;$A89</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -6816,59 +6816,59 @@
         <v>500</v>
       </c>
       <c r="F90" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G90" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E90&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H90" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B90&amp;"-"&amp;C90&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I90" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D90&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J90" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G90&amp;" "&amp;I90&amp;" "&amp;H90</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K90" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F90&amp;" "&amp;K$2&amp;" "&amp;$A90</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L90" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F90&amp;" "&amp;L$2&amp;" "&amp;$A90</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M90" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F90&amp;" "&amp;M$2&amp;" "&amp;$A90</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N90" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F90&amp;" "&amp;N$2&amp;" "&amp;$A90</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O90" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F90&amp;" "&amp;O$2&amp;" "&amp;$A90</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P90" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F90&amp;" "&amp;P$2&amp;" "&amp;$A90</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q90" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F90&amp;" "&amp;Q$2&amp;" "&amp;$A90</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R90" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F90&amp;" "&amp;R$2&amp;" "&amp;$A90</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S90" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F90&amp;" "&amp;S$2&amp;" "&amp;$A90</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -6886,59 +6886,59 @@
         <v>500</v>
       </c>
       <c r="F91" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G91" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E91&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H91" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B91&amp;"-"&amp;C91&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I91" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D91&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J91" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G91&amp;" "&amp;I91&amp;" "&amp;H91</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K91" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F91&amp;" "&amp;K$2&amp;" "&amp;$A91</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L91" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F91&amp;" "&amp;L$2&amp;" "&amp;$A91</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M91" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F91&amp;" "&amp;M$2&amp;" "&amp;$A91</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N91" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F91&amp;" "&amp;N$2&amp;" "&amp;$A91</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O91" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F91&amp;" "&amp;O$2&amp;" "&amp;$A91</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P91" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F91&amp;" "&amp;P$2&amp;" "&amp;$A91</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q91" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F91&amp;" "&amp;Q$2&amp;" "&amp;$A91</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R91" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F91&amp;" "&amp;R$2&amp;" "&amp;$A91</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S91" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F91&amp;" "&amp;S$2&amp;" "&amp;$A91</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -6956,59 +6956,59 @@
         <v>500</v>
       </c>
       <c r="F92" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G92" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E92&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H92" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B92&amp;"-"&amp;C92&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I92" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D92&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J92" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G92&amp;" "&amp;I92&amp;" "&amp;H92</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K92" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F92&amp;" "&amp;K$2&amp;" "&amp;$A92</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L92" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F92&amp;" "&amp;L$2&amp;" "&amp;$A92</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M92" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F92&amp;" "&amp;M$2&amp;" "&amp;$A92</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N92" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F92&amp;" "&amp;N$2&amp;" "&amp;$A92</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O92" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F92&amp;" "&amp;O$2&amp;" "&amp;$A92</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P92" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F92&amp;" "&amp;P$2&amp;" "&amp;$A92</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q92" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F92&amp;" "&amp;Q$2&amp;" "&amp;$A92</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R92" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F92&amp;" "&amp;R$2&amp;" "&amp;$A92</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S92" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F92&amp;" "&amp;S$2&amp;" "&amp;$A92</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -7026,59 +7026,59 @@
         <v>500</v>
       </c>
       <c r="F93" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G93" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E93&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H93" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B93&amp;"-"&amp;C93&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I93" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D93&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J93" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G93&amp;" "&amp;I93&amp;" "&amp;H93</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K93" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F93&amp;" "&amp;K$2&amp;" "&amp;$A93</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L93" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F93&amp;" "&amp;L$2&amp;" "&amp;$A93</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M93" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F93&amp;" "&amp;M$2&amp;" "&amp;$A93</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N93" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F93&amp;" "&amp;N$2&amp;" "&amp;$A93</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O93" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F93&amp;" "&amp;O$2&amp;" "&amp;$A93</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P93" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F93&amp;" "&amp;P$2&amp;" "&amp;$A93</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q93" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F93&amp;" "&amp;Q$2&amp;" "&amp;$A93</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R93" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F93&amp;" "&amp;R$2&amp;" "&amp;$A93</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S93" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F93&amp;" "&amp;S$2&amp;" "&amp;$A93</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -7096,59 +7096,59 @@
         <v>500</v>
       </c>
       <c r="F94" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G94" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E94&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H94" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B94&amp;"-"&amp;C94&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I94" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D94&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J94" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G94&amp;" "&amp;I94&amp;" "&amp;H94</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K94" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F94&amp;" "&amp;K$2&amp;" "&amp;$A94</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L94" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F94&amp;" "&amp;L$2&amp;" "&amp;$A94</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M94" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F94&amp;" "&amp;M$2&amp;" "&amp;$A94</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N94" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F94&amp;" "&amp;N$2&amp;" "&amp;$A94</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O94" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F94&amp;" "&amp;O$2&amp;" "&amp;$A94</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P94" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F94&amp;" "&amp;P$2&amp;" "&amp;$A94</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q94" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F94&amp;" "&amp;Q$2&amp;" "&amp;$A94</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R94" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F94&amp;" "&amp;R$2&amp;" "&amp;$A94</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S94" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F94&amp;" "&amp;S$2&amp;" "&amp;$A94</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -7166,59 +7166,59 @@
         <v>500</v>
       </c>
       <c r="F95" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G95" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E95&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H95" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B95&amp;"-"&amp;C95&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I95" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D95&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J95" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G95&amp;" "&amp;I95&amp;" "&amp;H95</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K95" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F95&amp;" "&amp;K$2&amp;" "&amp;$A95</f>
+        <f t="shared" ref="K95:S100" si="25">"zzz Infer "&amp;$A$2&amp;" "&amp;$F95&amp;" "&amp;K$2&amp;" "&amp;$A95</f>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L95" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F95&amp;" "&amp;L$2&amp;" "&amp;$A95</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M95" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F95&amp;" "&amp;M$2&amp;" "&amp;$A95</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N95" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F95&amp;" "&amp;N$2&amp;" "&amp;$A95</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O95" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F95&amp;" "&amp;O$2&amp;" "&amp;$A95</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P95" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F95&amp;" "&amp;P$2&amp;" "&amp;$A95</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q95" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F95&amp;" "&amp;Q$2&amp;" "&amp;$A95</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R95" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F95&amp;" "&amp;R$2&amp;" "&amp;$A95</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S95" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F95&amp;" "&amp;S$2&amp;" "&amp;$A95</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -7236,59 +7236,59 @@
         <v>500</v>
       </c>
       <c r="F96" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G96" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E96&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H96" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B96&amp;"-"&amp;C96&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I96" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D96&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J96" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G96&amp;" "&amp;I96&amp;" "&amp;H96</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K96" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F96&amp;" "&amp;K$2&amp;" "&amp;$A96</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L96" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F96&amp;" "&amp;L$2&amp;" "&amp;$A96</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M96" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F96&amp;" "&amp;M$2&amp;" "&amp;$A96</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N96" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F96&amp;" "&amp;N$2&amp;" "&amp;$A96</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O96" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F96&amp;" "&amp;O$2&amp;" "&amp;$A96</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P96" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F96&amp;" "&amp;P$2&amp;" "&amp;$A96</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q96" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F96&amp;" "&amp;Q$2&amp;" "&amp;$A96</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R96" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F96&amp;" "&amp;R$2&amp;" "&amp;$A96</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S96" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F96&amp;" "&amp;S$2&amp;" "&amp;$A96</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -7306,59 +7306,59 @@
         <v>500</v>
       </c>
       <c r="F97" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G97" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E97&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H97" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B97&amp;"-"&amp;C97&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I97" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D97&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J97" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G97&amp;" "&amp;I97&amp;" "&amp;H97</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K97" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F97&amp;" "&amp;K$2&amp;" "&amp;$A97</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L97" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F97&amp;" "&amp;L$2&amp;" "&amp;$A97</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M97" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F97&amp;" "&amp;M$2&amp;" "&amp;$A97</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N97" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F97&amp;" "&amp;N$2&amp;" "&amp;$A97</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O97" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F97&amp;" "&amp;O$2&amp;" "&amp;$A97</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P97" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F97&amp;" "&amp;P$2&amp;" "&amp;$A97</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q97" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F97&amp;" "&amp;Q$2&amp;" "&amp;$A97</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R97" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F97&amp;" "&amp;R$2&amp;" "&amp;$A97</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S97" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F97&amp;" "&amp;S$2&amp;" "&amp;$A97</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -7376,59 +7376,59 @@
         <v>500</v>
       </c>
       <c r="F98" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G98" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E98&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H98" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B98&amp;"-"&amp;C98&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I98" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D98&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J98" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G98&amp;" "&amp;I98&amp;" "&amp;H98</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K98" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F98&amp;" "&amp;K$2&amp;" "&amp;$A98</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L98" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F98&amp;" "&amp;L$2&amp;" "&amp;$A98</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M98" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F98&amp;" "&amp;M$2&amp;" "&amp;$A98</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N98" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F98&amp;" "&amp;N$2&amp;" "&amp;$A98</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O98" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F98&amp;" "&amp;O$2&amp;" "&amp;$A98</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P98" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F98&amp;" "&amp;P$2&amp;" "&amp;$A98</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q98" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F98&amp;" "&amp;Q$2&amp;" "&amp;$A98</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R98" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F98&amp;" "&amp;R$2&amp;" "&amp;$A98</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S98" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F98&amp;" "&amp;S$2&amp;" "&amp;$A98</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -7446,59 +7446,59 @@
         <v>500</v>
       </c>
       <c r="F99" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G99" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E99&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H99" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B99&amp;"-"&amp;C99&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I99" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D99&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J99" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G99&amp;" "&amp;I99&amp;" "&amp;H99</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K99" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F99&amp;" "&amp;K$2&amp;" "&amp;$A99</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L99" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F99&amp;" "&amp;L$2&amp;" "&amp;$A99</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M99" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F99&amp;" "&amp;M$2&amp;" "&amp;$A99</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N99" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F99&amp;" "&amp;N$2&amp;" "&amp;$A99</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O99" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F99&amp;" "&amp;O$2&amp;" "&amp;$A99</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P99" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F99&amp;" "&amp;P$2&amp;" "&amp;$A99</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q99" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F99&amp;" "&amp;Q$2&amp;" "&amp;$A99</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R99" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F99&amp;" "&amp;R$2&amp;" "&amp;$A99</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S99" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F99&amp;" "&amp;S$2&amp;" "&amp;$A99</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -7516,59 +7516,59 @@
         <v>500</v>
       </c>
       <c r="F100" s="7" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G100" s="7" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E100&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H100" s="7" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B100&amp;"-"&amp;C100&amp;".xml"</f>
+        <f t="shared" si="20"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I100" s="7" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D100&amp;".xml"</f>
+        <f t="shared" si="21"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J100" s="7" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G100&amp;" "&amp;I100&amp;" "&amp;H100</f>
+        <f t="shared" si="22"/>
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K100" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F100&amp;" "&amp;K$2&amp;" "&amp;$A100</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L100" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F100&amp;" "&amp;L$2&amp;" "&amp;$A100</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M100" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F100&amp;" "&amp;M$2&amp;" "&amp;$A100</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N100" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F100&amp;" "&amp;N$2&amp;" "&amp;$A100</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O100" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F100&amp;" "&amp;O$2&amp;" "&amp;$A100</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P100" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F100&amp;" "&amp;P$2&amp;" "&amp;$A100</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
       </c>
       <c r="Q100" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F100&amp;" "&amp;Q$2&amp;" "&amp;$A100</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a-bsc1.xml </v>
       </c>
       <c r="R100" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F100&amp;" "&amp;R$2&amp;" "&amp;$A100</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b-bsc1.xml </v>
       </c>
       <c r="S100" s="7" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F100&amp;" "&amp;S$2&amp;" "&amp;$A100</f>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c-bsc1.xml </v>
       </c>
     </row>
@@ -7610,7 +7610,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f>D2&amp;","</f>
+        <f t="shared" ref="C2:C11" si="0">D2&amp;","</f>
         <v>1624,</v>
       </c>
       <c r="D2">
@@ -7618,7 +7618,7 @@
         <v>1624</v>
       </c>
       <c r="E2" s="2">
-        <f>VALUE(RIGHT(A2,10))</f>
+        <f t="shared" ref="E2:E12" si="1">VALUE(RIGHT(A2,10))</f>
         <v>8044</v>
       </c>
       <c r="F2" s="2">
@@ -7642,30 +7642,30 @@
         <v>46</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f>D3&amp;","</f>
+        <f t="shared" si="0"/>
         <v>1980,</v>
       </c>
       <c r="D3" s="2">
-        <f>VALUE(LEFT(A3,12))</f>
+        <f t="shared" ref="D3:D12" si="2">VALUE(LEFT(A3,12))</f>
         <v>1980</v>
       </c>
       <c r="E3" s="2">
-        <f>VALUE(RIGHT(A3,10))</f>
+        <f t="shared" si="1"/>
         <v>8804</v>
       </c>
       <c r="F3" s="2">
         <v>200</v>
       </c>
       <c r="G3" s="6" t="str">
-        <f t="shared" ref="G3:G12" si="0">"insert into Engines values("&amp;D3&amp;", 2, "&amp;F3&amp;", 1, 4, 0, 1, 0, 'LogUser', 'LogPwd', 'Algo');"</f>
+        <f t="shared" ref="G3:G12" si="3">"insert into Engines values("&amp;D3&amp;", 2, "&amp;F3&amp;", 1, 4, 0, 1, 0, 'LogUser', 'LogPwd', 'Algo');"</f>
         <v>insert into Engines values(1980, 2, 200, 1, 4, 0, 1, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
       <c r="H3" s="6" t="str">
-        <f t="shared" ref="H3:H12" si="1">"insert into CoreLoggerParms values("&amp;D3&amp;", "&amp;E3&amp;", 0, 1, 0, 1, 1, 0, 1);"</f>
+        <f t="shared" ref="H3:H12" si="4">"insert into CoreLoggerParms values("&amp;D3&amp;", "&amp;E3&amp;", 0, 1, 0, 1, 1, 0, 1);"</f>
         <v>insert into CoreLoggerParms values(1980, 8804, 0, 1, 0, 1, 1, 0, 1);</v>
       </c>
       <c r="I3" s="6" t="str">
-        <f t="shared" ref="I3:I12" si="2">"insert into DBConnections values("&amp;D3&amp;", "&amp;E3&amp;", 0, 'LogUser', 'LogPwd', 'Algo');"</f>
+        <f t="shared" ref="I3:I12" si="5">"insert into DBConnections values("&amp;D3&amp;", "&amp;E3&amp;", 0, 'LogUser', 'LogPwd', 'Algo');"</f>
         <v>insert into DBConnections values(1980, 8804, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
       <c r="U3" t="s">
@@ -7677,30 +7677,30 @@
         <v>47</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f>D4&amp;","</f>
+        <f t="shared" si="0"/>
         <v>3400,</v>
       </c>
       <c r="D4" s="2">
-        <f>VALUE(LEFT(A4,12))</f>
+        <f t="shared" si="2"/>
         <v>3400</v>
       </c>
       <c r="E4" s="2">
-        <f>VALUE(RIGHT(A4,10))</f>
+        <f t="shared" si="1"/>
         <v>7232</v>
       </c>
       <c r="F4" s="2">
         <v>200</v>
       </c>
       <c r="G4" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>insert into Engines values(3400, 2, 200, 1, 4, 0, 1, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>insert into CoreLoggerParms values(3400, 7232, 0, 1, 0, 1, 1, 0, 1);</v>
       </c>
       <c r="I4" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>insert into DBConnections values(3400, 7232, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
       <c r="U4" t="s">
@@ -7712,30 +7712,30 @@
         <v>48</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f>D5&amp;","</f>
+        <f t="shared" si="0"/>
         <v>3576,</v>
       </c>
       <c r="D5" s="2">
-        <f>VALUE(LEFT(A5,12))</f>
+        <f t="shared" si="2"/>
         <v>3576</v>
       </c>
       <c r="E5" s="2">
-        <f>VALUE(RIGHT(A5,10))</f>
+        <f t="shared" si="1"/>
         <v>5164</v>
       </c>
       <c r="F5" s="2">
         <v>100</v>
       </c>
       <c r="G5" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>insert into Engines values(3576, 2, 100, 1, 4, 0, 1, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>insert into CoreLoggerParms values(3576, 5164, 0, 1, 0, 1, 1, 0, 1);</v>
       </c>
       <c r="I5" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>insert into DBConnections values(3576, 5164, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
       <c r="U5" t="s">
@@ -7747,30 +7747,30 @@
         <v>49</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f>D6&amp;","</f>
+        <f t="shared" si="0"/>
         <v>5368,</v>
       </c>
       <c r="D6" s="2">
-        <f>VALUE(LEFT(A6,12))</f>
+        <f t="shared" si="2"/>
         <v>5368</v>
       </c>
       <c r="E6" s="2">
-        <f>VALUE(RIGHT(A6,10))</f>
+        <f t="shared" si="1"/>
         <v>5340</v>
       </c>
       <c r="F6" s="2">
         <v>200</v>
       </c>
       <c r="G6" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>insert into Engines values(5368, 2, 200, 1, 4, 0, 1, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>insert into CoreLoggerParms values(5368, 5340, 0, 1, 0, 1, 1, 0, 1);</v>
       </c>
       <c r="I6" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>insert into DBConnections values(5368, 5340, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
       <c r="U6" t="s">
@@ -7782,30 +7782,30 @@
         <v>50</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f>D7&amp;","</f>
+        <f t="shared" si="0"/>
         <v>5532,</v>
       </c>
       <c r="D7" s="2">
-        <f>VALUE(LEFT(A7,12))</f>
+        <f t="shared" si="2"/>
         <v>5532</v>
       </c>
       <c r="E7" s="2">
-        <f>VALUE(RIGHT(A7,10))</f>
+        <f t="shared" si="1"/>
         <v>9232</v>
       </c>
       <c r="F7" s="2">
         <v>100</v>
       </c>
       <c r="G7" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>insert into Engines values(5532, 2, 100, 1, 4, 0, 1, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>insert into CoreLoggerParms values(5532, 9232, 0, 1, 0, 1, 1, 0, 1);</v>
       </c>
       <c r="I7" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>insert into DBConnections values(5532, 9232, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
       <c r="U7" t="s">
@@ -7817,30 +7817,30 @@
         <v>51</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f>D8&amp;","</f>
+        <f t="shared" si="0"/>
         <v>6556,</v>
       </c>
       <c r="D8" s="2">
-        <f>VALUE(LEFT(A8,12))</f>
+        <f t="shared" si="2"/>
         <v>6556</v>
       </c>
       <c r="E8" s="2">
-        <f>VALUE(RIGHT(A8,10))</f>
+        <f t="shared" si="1"/>
         <v>9548</v>
       </c>
       <c r="F8" s="2">
         <v>50</v>
       </c>
       <c r="G8" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>insert into Engines values(6556, 2, 50, 1, 4, 0, 1, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>insert into CoreLoggerParms values(6556, 9548, 0, 1, 0, 1, 1, 0, 1);</v>
       </c>
       <c r="I8" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>insert into DBConnections values(6556, 9548, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
       <c r="U8" t="s">
@@ -7852,30 +7852,30 @@
         <v>52</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f>D9&amp;","</f>
+        <f t="shared" si="0"/>
         <v>8052,</v>
       </c>
       <c r="D9" s="2">
-        <f>VALUE(LEFT(A9,12))</f>
+        <f t="shared" si="2"/>
         <v>8052</v>
       </c>
       <c r="E9" s="2">
-        <f>VALUE(RIGHT(A9,10))</f>
+        <f t="shared" si="1"/>
         <v>3844</v>
       </c>
       <c r="F9" s="2">
         <v>50</v>
       </c>
       <c r="G9" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>insert into Engines values(8052, 2, 50, 1, 4, 0, 1, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>insert into CoreLoggerParms values(8052, 3844, 0, 1, 0, 1, 1, 0, 1);</v>
       </c>
       <c r="I9" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>insert into DBConnections values(8052, 3844, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
       <c r="U9" t="s">
@@ -7887,30 +7887,30 @@
         <v>53</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f>D10&amp;","</f>
+        <f t="shared" si="0"/>
         <v>9048,</v>
       </c>
       <c r="D10" s="2">
-        <f>VALUE(LEFT(A10,12))</f>
+        <f t="shared" si="2"/>
         <v>9048</v>
       </c>
       <c r="E10" s="2">
-        <f>VALUE(RIGHT(A10,10))</f>
+        <f t="shared" si="1"/>
         <v>8680</v>
       </c>
       <c r="F10" s="2">
         <v>100</v>
       </c>
       <c r="G10" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>insert into Engines values(9048, 2, 100, 1, 4, 0, 1, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>insert into CoreLoggerParms values(9048, 8680, 0, 1, 0, 1, 1, 0, 1);</v>
       </c>
       <c r="I10" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>insert into DBConnections values(9048, 8680, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
       <c r="U10" t="s">
@@ -7922,30 +7922,30 @@
         <v>54</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f>D11&amp;","</f>
+        <f t="shared" si="0"/>
         <v>9368,</v>
       </c>
       <c r="D11" s="2">
-        <f>VALUE(LEFT(A11,12))</f>
+        <f t="shared" si="2"/>
         <v>9368</v>
       </c>
       <c r="E11" s="2">
-        <f>VALUE(RIGHT(A11,10))</f>
+        <f t="shared" si="1"/>
         <v>3584</v>
       </c>
       <c r="F11" s="2">
         <v>100</v>
       </c>
       <c r="G11" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>insert into Engines values(9368, 2, 100, 1, 4, 0, 1, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>insert into CoreLoggerParms values(9368, 3584, 0, 1, 0, 1, 1, 0, 1);</v>
       </c>
       <c r="I11" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>insert into DBConnections values(9368, 3584, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
       <c r="U11">
@@ -7961,26 +7961,26 @@
         <v>9372);</v>
       </c>
       <c r="D12" s="2">
-        <f>VALUE(LEFT(A12,12))</f>
+        <f t="shared" si="2"/>
         <v>9372</v>
       </c>
       <c r="E12" s="2">
-        <f>VALUE(RIGHT(A12,10))</f>
+        <f t="shared" si="1"/>
         <v>8740</v>
       </c>
       <c r="F12" s="2">
         <v>50</v>
       </c>
       <c r="G12" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>insert into Engines values(9372, 2, 50, 1, 4, 0, 1, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>insert into CoreLoggerParms values(9372, 8740, 0, 1, 0, 1, 1, 0, 1);</v>
       </c>
       <c r="I12" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>insert into DBConnections values(9372, 8740, 0, 'LogUser', 'LogPwd', 'Algo');</v>
       </c>
       <c r="U12" t="s">
